--- a/scimagojr/scimagojr_2014.xlsx
+++ b/scimagojr/scimagojr_2014.xlsx
@@ -116,12 +116,12 @@
     <t>Switzerland</t>
   </si>
   <si>
+    <t>Poland</t>
+  </si>
+  <si>
     <t>Taiwan</t>
   </si>
   <si>
-    <t>Poland</t>
-  </si>
-  <si>
     <t>Turkey</t>
   </si>
   <si>
@@ -347,39 +347,39 @@
     <t>Macedonia</t>
   </si>
   <si>
+    <t>Bosnia and Herzegovina</t>
+  </si>
+  <si>
     <t>Costa Rica</t>
   </si>
   <si>
-    <t>Bosnia and Herzegovina</t>
-  </si>
-  <si>
     <t>Puerto Rico</t>
   </si>
   <si>
+    <t>Sudan</t>
+  </si>
+  <si>
+    <t>Zimbabwe</t>
+  </si>
+  <si>
     <t>Azerbaijan</t>
   </si>
   <si>
-    <t>Sudan</t>
-  </si>
-  <si>
     <t>Senegal</t>
   </si>
   <si>
-    <t>Zimbabwe</t>
-  </si>
-  <si>
     <t>Malta</t>
   </si>
   <si>
     <t>Palestine</t>
   </si>
   <si>
+    <t>Albania</t>
+  </si>
+  <si>
     <t>Uzbekistan</t>
   </si>
   <si>
-    <t>Albania</t>
-  </si>
-  <si>
     <t>Botswana</t>
   </si>
   <si>
@@ -395,24 +395,24 @@
     <t>Panama</t>
   </si>
   <si>
+    <t>Trinidad and Tobago</t>
+  </si>
+  <si>
     <t>Congo</t>
   </si>
   <si>
-    <t>Trinidad and Tobago</t>
-  </si>
-  <si>
     <t>Burkina Faso</t>
   </si>
   <si>
     <t>Moldova</t>
   </si>
   <si>
+    <t>Jamaica</t>
+  </si>
+  <si>
     <t>Zambia</t>
   </si>
   <si>
-    <t>Jamaica</t>
-  </si>
-  <si>
     <t>Bahrain</t>
   </si>
   <si>
@@ -437,15 +437,15 @@
     <t>Cambodia</t>
   </si>
   <si>
+    <t>Rwanda</t>
+  </si>
+  <si>
     <t>Bolivia</t>
   </si>
   <si>
     <t>Madagascar</t>
   </si>
   <si>
-    <t>Rwanda</t>
-  </si>
-  <si>
     <t>Fiji</t>
   </si>
   <si>
@@ -461,12 +461,12 @@
     <t>Mali</t>
   </si>
   <si>
+    <t>Guatemala</t>
+  </si>
+  <si>
     <t>Laos</t>
   </si>
   <si>
-    <t>Guatemala</t>
-  </si>
-  <si>
     <t>Gabon</t>
   </si>
   <si>
@@ -485,12 +485,12 @@
     <t>Gambia</t>
   </si>
   <si>
+    <t>Myanmar</t>
+  </si>
+  <si>
     <t>Grenada</t>
   </si>
   <si>
-    <t>Myanmar</t>
-  </si>
-  <si>
     <t>Kyrgyzstan</t>
   </si>
   <si>
@@ -506,16 +506,19 @@
     <t>Guadeloupe</t>
   </si>
   <si>
+    <t>Saint Kitts and Nevis</t>
+  </si>
+  <si>
     <t>Monaco</t>
   </si>
   <si>
-    <t>Saint Kitts and Nevis</t>
+    <t>El Salvador</t>
   </si>
   <si>
     <t>Dominican Republic</t>
   </si>
   <si>
-    <t>El Salvador</t>
+    <t>Haïti</t>
   </si>
   <si>
     <t>Afghanistan</t>
@@ -524,24 +527,21 @@
     <t>Greenland</t>
   </si>
   <si>
-    <t>Haïti</t>
-  </si>
-  <si>
     <t>French Polynesia</t>
   </si>
   <si>
+    <t>Angola</t>
+  </si>
+  <si>
     <t>Nicaragua</t>
   </si>
   <si>
-    <t>Angola</t>
-  </si>
-  <si>
-    <t>Swaziland</t>
-  </si>
-  <si>
     <t>Tajikistan</t>
   </si>
   <si>
+    <t>Eswatini</t>
+  </si>
+  <si>
     <t>Bhutan</t>
   </si>
   <si>
@@ -566,15 +566,15 @@
     <t>Faroe Islands</t>
   </si>
   <si>
+    <t>Bahamas</t>
+  </si>
+  <si>
     <t>Guam</t>
   </si>
   <si>
     <t>Reunion</t>
   </si>
   <si>
-    <t>Bahamas</t>
-  </si>
-  <si>
     <t>Central African Republic</t>
   </si>
   <si>
@@ -590,12 +590,12 @@
     <t>Seychelles</t>
   </si>
   <si>
+    <t>Lesotho</t>
+  </si>
+  <si>
     <t>North Korea</t>
   </si>
   <si>
-    <t>Lesotho</t>
-  </si>
-  <si>
     <t>Democratic Republic Congo</t>
   </si>
   <si>
@@ -608,9 +608,15 @@
     <t>Cape Verde</t>
   </si>
   <si>
+    <t>Belize</t>
+  </si>
+  <si>
     <t>Samoa</t>
   </si>
   <si>
+    <t>Eritrea</t>
+  </si>
+  <si>
     <t>Vanuatu</t>
   </si>
   <si>
@@ -620,60 +626,54 @@
     <t>Chad</t>
   </si>
   <si>
-    <t>Eritrea</t>
-  </si>
-  <si>
     <t>Dominica</t>
   </si>
   <si>
+    <t>Timor-Leste</t>
+  </si>
+  <si>
     <t>Solomon Islands</t>
   </si>
   <si>
-    <t>Timor-Leste</t>
-  </si>
-  <si>
-    <t>Belize</t>
+    <t>Aruba</t>
+  </si>
+  <si>
+    <t>Republic of South Sudan</t>
   </si>
   <si>
     <t>Somalia</t>
   </si>
   <si>
-    <t>Aruba</t>
+    <t>Djibouti</t>
   </si>
   <si>
     <t>Maldives</t>
   </si>
   <si>
-    <t>Djibouti</t>
+    <t>Suriname</t>
   </si>
   <si>
     <t>American Samoa</t>
   </si>
   <si>
-    <t>Suriname</t>
-  </si>
-  <si>
     <t>Andorra</t>
   </si>
   <si>
     <t>Federated States of Micronesia</t>
   </si>
   <si>
+    <t>Gibraltar</t>
+  </si>
+  <si>
+    <t>Cayman Islands</t>
+  </si>
+  <si>
+    <t>Equatorial Guinea</t>
+  </si>
+  <si>
     <t>San Marino</t>
   </si>
   <si>
-    <t>Equatorial Guinea</t>
-  </si>
-  <si>
-    <t>Republic of South Sudan</t>
-  </si>
-  <si>
-    <t>Cayman Islands</t>
-  </si>
-  <si>
-    <t>Gibraltar</t>
-  </si>
-  <si>
     <t>Falkland Islands (Malvinas)</t>
   </si>
   <si>
@@ -689,36 +689,36 @@
     <t>Antigua and Barbuda</t>
   </si>
   <si>
+    <t>Kiribati</t>
+  </si>
+  <si>
+    <t>Cook Islands</t>
+  </si>
+  <si>
     <t>Virgin Islands (British)</t>
   </si>
   <si>
-    <t>Kiribati</t>
-  </si>
-  <si>
-    <t>Cook Islands</t>
-  </si>
-  <si>
     <t>Marshall Islands</t>
   </si>
   <si>
+    <t>Tonga</t>
+  </si>
+  <si>
     <t>Anguilla</t>
   </si>
   <si>
-    <t>Tonga</t>
-  </si>
-  <si>
     <t>Montserrat</t>
   </si>
   <si>
+    <t>Tuvalu</t>
+  </si>
+  <si>
     <t>Comoros</t>
   </si>
   <si>
     <t>Mayotte</t>
   </si>
   <si>
-    <t>Tuvalu</t>
-  </si>
-  <si>
     <t>Saint Vincent and the Grenadines</t>
   </si>
   <si>
@@ -728,37 +728,37 @@
     <t>Sao Tome and Principe</t>
   </si>
   <si>
+    <t>Turks and Caicos Islands</t>
+  </si>
+  <si>
+    <t>Saint Helena</t>
+  </si>
+  <si>
+    <t>Nauru</t>
+  </si>
+  <si>
     <t>Niue</t>
   </si>
   <si>
-    <t>Turks and Caicos Islands</t>
+    <t>Vatican City State</t>
   </si>
   <si>
     <t>Northern Mariana Islands</t>
   </si>
   <si>
-    <t>Nauru</t>
-  </si>
-  <si>
-    <t>Saint Helena</t>
+    <t>Bouvet Island</t>
+  </si>
+  <si>
+    <t>South Georgia and the South Sandwich Islands</t>
+  </si>
+  <si>
+    <t>Tokelau</t>
+  </si>
+  <si>
+    <t>Norfolk Island</t>
   </si>
   <si>
     <t>Curaçao</t>
-  </si>
-  <si>
-    <t>Norfolk Island</t>
-  </si>
-  <si>
-    <t>South Georgia and the South Sandwich Islands</t>
-  </si>
-  <si>
-    <t>Vatican City State</t>
-  </si>
-  <si>
-    <t>Tokelau</t>
-  </si>
-  <si>
-    <t>Bouvet Island</t>
   </si>
 </sst>
 </file>
@@ -902,22 +902,22 @@
         <v>10</v>
       </c>
       <c r="D2" s="0" t="n">
-        <v>675689</v>
+        <v>679190</v>
       </c>
       <c r="E2" s="0" t="n">
-        <v>568254</v>
+        <v>569445</v>
       </c>
       <c r="F2" s="0" t="n">
-        <v>16061778</v>
+        <v>20584715</v>
       </c>
       <c r="G2" s="0" t="n">
-        <v>6839640</v>
+        <v>8258680</v>
       </c>
       <c r="H2" s="0" t="n">
-        <v>23.77</v>
+        <v>30.31</v>
       </c>
       <c r="I2" s="0" t="n">
-        <v>2711</v>
+        <v>3051</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="3">
@@ -931,22 +931,22 @@
         <v>12</v>
       </c>
       <c r="D3" s="0" t="n">
-        <v>489224</v>
+        <v>487514</v>
       </c>
       <c r="E3" s="0" t="n">
-        <v>478929</v>
+        <v>478585</v>
       </c>
       <c r="F3" s="0" t="n">
-        <v>7294318</v>
+        <v>9133353</v>
       </c>
       <c r="G3" s="0" t="n">
-        <v>4305094</v>
+        <v>5306040</v>
       </c>
       <c r="H3" s="0" t="n">
-        <v>14.91</v>
+        <v>18.73</v>
       </c>
       <c r="I3" s="0" t="n">
-        <v>1112</v>
+        <v>1333</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="4">
@@ -960,22 +960,22 @@
         <v>14</v>
       </c>
       <c r="D4" s="0" t="n">
-        <v>200693</v>
+        <v>202385</v>
       </c>
       <c r="E4" s="0" t="n">
-        <v>162633</v>
+        <v>162813</v>
       </c>
       <c r="F4" s="0" t="n">
-        <v>4884078</v>
+        <v>6255283</v>
       </c>
       <c r="G4" s="0" t="n">
-        <v>1103217</v>
+        <v>1308952</v>
       </c>
       <c r="H4" s="0" t="n">
-        <v>24.34</v>
+        <v>30.91</v>
       </c>
       <c r="I4" s="0" t="n">
-        <v>1707</v>
+        <v>1928</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="5">
@@ -989,22 +989,22 @@
         <v>14</v>
       </c>
       <c r="D5" s="0" t="n">
-        <v>174547</v>
+        <v>174032</v>
       </c>
       <c r="E5" s="0" t="n">
-        <v>157499</v>
+        <v>157402</v>
       </c>
       <c r="F5" s="0" t="n">
-        <v>4039411</v>
+        <v>5103768</v>
       </c>
       <c r="G5" s="0" t="n">
-        <v>974410</v>
+        <v>1133686</v>
       </c>
       <c r="H5" s="0" t="n">
-        <v>23.14</v>
+        <v>29.33</v>
       </c>
       <c r="I5" s="0" t="n">
-        <v>1498</v>
+        <v>1690</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="6">
@@ -1018,22 +1018,22 @@
         <v>12</v>
       </c>
       <c r="D6" s="0" t="n">
-        <v>133608</v>
+        <v>133689</v>
       </c>
       <c r="E6" s="0" t="n">
-        <v>123668</v>
+        <v>124039</v>
       </c>
       <c r="F6" s="0" t="n">
-        <v>1668183</v>
+        <v>2163971</v>
       </c>
       <c r="G6" s="0" t="n">
-        <v>574256</v>
+        <v>747122</v>
       </c>
       <c r="H6" s="0" t="n">
-        <v>12.49</v>
+        <v>16.19</v>
       </c>
       <c r="I6" s="0" t="n">
-        <v>745</v>
+        <v>858</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="7">
@@ -1047,22 +1047,22 @@
         <v>12</v>
       </c>
       <c r="D7" s="0" t="n">
-        <v>132818</v>
+        <v>132418</v>
       </c>
       <c r="E7" s="0" t="n">
-        <v>123707</v>
+        <v>123809</v>
       </c>
       <c r="F7" s="0" t="n">
-        <v>2066222</v>
+        <v>2587189</v>
       </c>
       <c r="G7" s="0" t="n">
-        <v>515956</v>
+        <v>600904</v>
       </c>
       <c r="H7" s="0" t="n">
-        <v>15.56</v>
+        <v>19.54</v>
       </c>
       <c r="I7" s="0" t="n">
-        <v>1171</v>
+        <v>1301</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="8">
@@ -1076,22 +1076,22 @@
         <v>14</v>
       </c>
       <c r="D8" s="0" t="n">
-        <v>122215</v>
+        <v>121884</v>
       </c>
       <c r="E8" s="0" t="n">
-        <v>111181</v>
+        <v>111137</v>
       </c>
       <c r="F8" s="0" t="n">
-        <v>2665172</v>
+        <v>3354221</v>
       </c>
       <c r="G8" s="0" t="n">
-        <v>530763</v>
+        <v>614063</v>
       </c>
       <c r="H8" s="0" t="n">
-        <v>21.81</v>
+        <v>27.52</v>
       </c>
       <c r="I8" s="0" t="n">
-        <v>1352</v>
+        <v>1514</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="9">
@@ -1105,22 +1105,22 @@
         <v>14</v>
       </c>
       <c r="D9" s="0" t="n">
-        <v>109075</v>
+        <v>108646</v>
       </c>
       <c r="E9" s="0" t="n">
-        <v>96808</v>
+        <v>96787</v>
       </c>
       <c r="F9" s="0" t="n">
-        <v>2459322</v>
+        <v>3072486</v>
       </c>
       <c r="G9" s="0" t="n">
-        <v>603205</v>
+        <v>700292</v>
       </c>
       <c r="H9" s="0" t="n">
-        <v>22.55</v>
+        <v>28.28</v>
       </c>
       <c r="I9" s="0" t="n">
-        <v>1189</v>
+        <v>1333</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="10">
@@ -1134,22 +1134,22 @@
         <v>10</v>
       </c>
       <c r="D10" s="0" t="n">
-        <v>105867</v>
+        <v>105917</v>
       </c>
       <c r="E10" s="0" t="n">
-        <v>91600</v>
+        <v>91741</v>
       </c>
       <c r="F10" s="0" t="n">
-        <v>2627103</v>
+        <v>3370567</v>
       </c>
       <c r="G10" s="0" t="n">
-        <v>444506</v>
+        <v>526316</v>
       </c>
       <c r="H10" s="0" t="n">
-        <v>24.82</v>
+        <v>31.82</v>
       </c>
       <c r="I10" s="0" t="n">
-        <v>1381</v>
+        <v>1562</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="11">
@@ -1163,22 +1163,22 @@
         <v>22</v>
       </c>
       <c r="D11" s="0" t="n">
-        <v>94277</v>
+        <v>94569</v>
       </c>
       <c r="E11" s="0" t="n">
-        <v>81114</v>
+        <v>81208</v>
       </c>
       <c r="F11" s="0" t="n">
-        <v>2417720</v>
+        <v>3118391</v>
       </c>
       <c r="G11" s="0" t="n">
-        <v>478608</v>
+        <v>564748</v>
       </c>
       <c r="H11" s="0" t="n">
-        <v>25.64</v>
+        <v>32.97</v>
       </c>
       <c r="I11" s="0" t="n">
-        <v>1193</v>
+        <v>1377</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="12">
@@ -1192,22 +1192,22 @@
         <v>14</v>
       </c>
       <c r="D12" s="0" t="n">
-        <v>91167</v>
+        <v>90915</v>
       </c>
       <c r="E12" s="0" t="n">
-        <v>82366</v>
+        <v>82343</v>
       </c>
       <c r="F12" s="0" t="n">
-        <v>1992541</v>
+        <v>2502998</v>
       </c>
       <c r="G12" s="0" t="n">
-        <v>409454</v>
+        <v>477552</v>
       </c>
       <c r="H12" s="0" t="n">
-        <v>21.86</v>
+        <v>27.53</v>
       </c>
       <c r="I12" s="0" t="n">
-        <v>1073</v>
+        <v>1215</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="13">
@@ -1221,22 +1221,22 @@
         <v>12</v>
       </c>
       <c r="D13" s="0" t="n">
-        <v>79324</v>
+        <v>78770</v>
       </c>
       <c r="E13" s="0" t="n">
-        <v>75926</v>
+        <v>75887</v>
       </c>
       <c r="F13" s="0" t="n">
-        <v>1442739</v>
+        <v>1814845</v>
       </c>
       <c r="G13" s="0" t="n">
-        <v>272828</v>
+        <v>311812</v>
       </c>
       <c r="H13" s="0" t="n">
-        <v>18.19</v>
+        <v>23.04</v>
       </c>
       <c r="I13" s="0" t="n">
-        <v>810</v>
+        <v>934</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="14">
@@ -1250,22 +1250,22 @@
         <v>26</v>
       </c>
       <c r="D14" s="0" t="n">
-        <v>68377</v>
+        <v>68372</v>
       </c>
       <c r="E14" s="0" t="n">
-        <v>64284</v>
+        <v>64412</v>
       </c>
       <c r="F14" s="0" t="n">
-        <v>965134</v>
+        <v>1224491</v>
       </c>
       <c r="G14" s="0" t="n">
-        <v>306447</v>
+        <v>369994</v>
       </c>
       <c r="H14" s="0" t="n">
-        <v>14.11</v>
+        <v>17.91</v>
       </c>
       <c r="I14" s="0" t="n">
-        <v>690</v>
+        <v>789</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="15">
@@ -1279,22 +1279,22 @@
         <v>14</v>
       </c>
       <c r="D15" s="0" t="n">
-        <v>59487</v>
+        <v>59493</v>
       </c>
       <c r="E15" s="0" t="n">
-        <v>52218</v>
+        <v>52310</v>
       </c>
       <c r="F15" s="0" t="n">
-        <v>1784651</v>
+        <v>2272559</v>
       </c>
       <c r="G15" s="0" t="n">
-        <v>267428</v>
+        <v>308779</v>
       </c>
       <c r="H15" s="0" t="n">
-        <v>30</v>
+        <v>38.2</v>
       </c>
       <c r="I15" s="0" t="n">
-        <v>1206</v>
+        <v>1373</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="16">
@@ -1308,22 +1308,22 @@
         <v>29</v>
       </c>
       <c r="D16" s="0" t="n">
-        <v>59245</v>
+        <v>59414</v>
       </c>
       <c r="E16" s="0" t="n">
-        <v>57220</v>
+        <v>57523</v>
       </c>
       <c r="F16" s="0" t="n">
-        <v>578475</v>
+        <v>699619</v>
       </c>
       <c r="G16" s="0" t="n">
-        <v>225167</v>
+        <v>258149</v>
       </c>
       <c r="H16" s="0" t="n">
-        <v>9.76</v>
+        <v>11.78</v>
       </c>
       <c r="I16" s="0" t="n">
-        <v>675</v>
+        <v>753</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="17">
@@ -1337,22 +1337,22 @@
         <v>31</v>
       </c>
       <c r="D17" s="0" t="n">
-        <v>45459</v>
+        <v>45292</v>
       </c>
       <c r="E17" s="0" t="n">
-        <v>43839</v>
+        <v>43906</v>
       </c>
       <c r="F17" s="0" t="n">
-        <v>687280</v>
+        <v>878598</v>
       </c>
       <c r="G17" s="0" t="n">
-        <v>226903</v>
+        <v>265336</v>
       </c>
       <c r="H17" s="0" t="n">
-        <v>15.12</v>
+        <v>19.4</v>
       </c>
       <c r="I17" s="0" t="n">
-        <v>416</v>
+        <v>490</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="18">
@@ -1366,22 +1366,22 @@
         <v>14</v>
       </c>
       <c r="D18" s="0" t="n">
-        <v>44812</v>
+        <v>44673</v>
       </c>
       <c r="E18" s="0" t="n">
-        <v>40062</v>
+        <v>40083</v>
       </c>
       <c r="F18" s="0" t="n">
-        <v>1385664</v>
+        <v>1726107</v>
       </c>
       <c r="G18" s="0" t="n">
-        <v>185289</v>
+        <v>210331</v>
       </c>
       <c r="H18" s="0" t="n">
-        <v>30.92</v>
+        <v>38.64</v>
       </c>
       <c r="I18" s="0" t="n">
-        <v>1142</v>
+        <v>1291</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="19">
@@ -1392,25 +1392,25 @@
         <v>33</v>
       </c>
       <c r="C19" s="0" t="s">
-        <v>12</v>
+        <v>29</v>
       </c>
       <c r="D19" s="0" t="n">
-        <v>42280</v>
+        <v>42120</v>
       </c>
       <c r="E19" s="0" t="n">
-        <v>40368</v>
+        <v>39912</v>
       </c>
       <c r="F19" s="0" t="n">
-        <v>658007</v>
+        <v>744160</v>
       </c>
       <c r="G19" s="0" t="n">
-        <v>103655</v>
+        <v>170330</v>
       </c>
       <c r="H19" s="0" t="n">
-        <v>15.56</v>
+        <v>17.67</v>
       </c>
       <c r="I19" s="0" t="n">
-        <v>615</v>
+        <v>738</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="20">
@@ -1421,25 +1421,25 @@
         <v>34</v>
       </c>
       <c r="C20" s="0" t="s">
-        <v>29</v>
+        <v>12</v>
       </c>
       <c r="D20" s="0" t="n">
-        <v>42176</v>
+        <v>42086</v>
       </c>
       <c r="E20" s="0" t="n">
-        <v>39877</v>
+        <v>40360</v>
       </c>
       <c r="F20" s="0" t="n">
-        <v>603071</v>
+        <v>827314</v>
       </c>
       <c r="G20" s="0" t="n">
-        <v>150170</v>
+        <v>117676</v>
       </c>
       <c r="H20" s="0" t="n">
-        <v>14.3</v>
+        <v>19.66</v>
       </c>
       <c r="I20" s="0" t="n">
-        <v>660</v>
+        <v>688</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="21">
@@ -1453,22 +1453,22 @@
         <v>31</v>
       </c>
       <c r="D21" s="0" t="n">
-        <v>41330</v>
+        <v>41271</v>
       </c>
       <c r="E21" s="0" t="n">
-        <v>37669</v>
+        <v>37681</v>
       </c>
       <c r="F21" s="0" t="n">
-        <v>519592</v>
+        <v>665995</v>
       </c>
       <c r="G21" s="0" t="n">
-        <v>102700</v>
+        <v>124818</v>
       </c>
       <c r="H21" s="0" t="n">
-        <v>12.57</v>
+        <v>16.14</v>
       </c>
       <c r="I21" s="0" t="n">
-        <v>535</v>
+        <v>601</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="22">
@@ -1482,22 +1482,22 @@
         <v>14</v>
       </c>
       <c r="D22" s="0" t="n">
-        <v>39454</v>
+        <v>39360</v>
       </c>
       <c r="E22" s="0" t="n">
-        <v>35414</v>
+        <v>35412</v>
       </c>
       <c r="F22" s="0" t="n">
-        <v>1142888</v>
+        <v>1443186</v>
       </c>
       <c r="G22" s="0" t="n">
-        <v>159597</v>
+        <v>183640</v>
       </c>
       <c r="H22" s="0" t="n">
-        <v>28.97</v>
+        <v>36.67</v>
       </c>
       <c r="I22" s="0" t="n">
-        <v>1036</v>
+        <v>1159</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="23">
@@ -1511,22 +1511,22 @@
         <v>14</v>
       </c>
       <c r="D23" s="0" t="n">
-        <v>33435</v>
+        <v>33385</v>
       </c>
       <c r="E23" s="0" t="n">
-        <v>29804</v>
+        <v>29834</v>
       </c>
       <c r="F23" s="0" t="n">
-        <v>934694</v>
+        <v>1182160</v>
       </c>
       <c r="G23" s="0" t="n">
-        <v>114650</v>
+        <v>129766</v>
       </c>
       <c r="H23" s="0" t="n">
-        <v>27.96</v>
+        <v>35.41</v>
       </c>
       <c r="I23" s="0" t="n">
-        <v>942</v>
+        <v>1067</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="24">
@@ -1540,22 +1540,22 @@
         <v>12</v>
       </c>
       <c r="D24" s="0" t="n">
-        <v>29096</v>
+        <v>29158</v>
       </c>
       <c r="E24" s="0" t="n">
-        <v>27876</v>
+        <v>28007</v>
       </c>
       <c r="F24" s="0" t="n">
-        <v>397629</v>
+        <v>519746</v>
       </c>
       <c r="G24" s="0" t="n">
-        <v>89912</v>
+        <v>105893</v>
       </c>
       <c r="H24" s="0" t="n">
-        <v>13.67</v>
+        <v>17.83</v>
       </c>
       <c r="I24" s="0" t="n">
-        <v>415</v>
+        <v>504</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="25">
@@ -1569,22 +1569,22 @@
         <v>14</v>
       </c>
       <c r="D25" s="0" t="n">
-        <v>26338</v>
+        <v>26284</v>
       </c>
       <c r="E25" s="0" t="n">
-        <v>23398</v>
+        <v>23401</v>
       </c>
       <c r="F25" s="0" t="n">
-        <v>819970</v>
+        <v>1037386</v>
       </c>
       <c r="G25" s="0" t="n">
-        <v>110723</v>
+        <v>127532</v>
       </c>
       <c r="H25" s="0" t="n">
-        <v>31.13</v>
+        <v>39.47</v>
       </c>
       <c r="I25" s="0" t="n">
-        <v>900</v>
+        <v>1014</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="26">
@@ -1598,22 +1598,22 @@
         <v>14</v>
       </c>
       <c r="D26" s="0" t="n">
-        <v>24662</v>
+        <v>24609</v>
       </c>
       <c r="E26" s="0" t="n">
-        <v>21987</v>
+        <v>21979</v>
       </c>
       <c r="F26" s="0" t="n">
-        <v>621116</v>
+        <v>777320</v>
       </c>
       <c r="G26" s="0" t="n">
-        <v>76869</v>
+        <v>86909</v>
       </c>
       <c r="H26" s="0" t="n">
-        <v>25.19</v>
+        <v>31.59</v>
       </c>
       <c r="I26" s="0" t="n">
-        <v>783</v>
+        <v>877</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="27">
@@ -1627,22 +1627,22 @@
         <v>14</v>
       </c>
       <c r="D27" s="0" t="n">
-        <v>23518</v>
+        <v>23573</v>
       </c>
       <c r="E27" s="0" t="n">
-        <v>21334</v>
+        <v>21429</v>
       </c>
       <c r="F27" s="0" t="n">
-        <v>484338</v>
+        <v>617382</v>
       </c>
       <c r="G27" s="0" t="n">
-        <v>79720</v>
+        <v>92995</v>
       </c>
       <c r="H27" s="0" t="n">
-        <v>20.59</v>
+        <v>26.19</v>
       </c>
       <c r="I27" s="0" t="n">
-        <v>599</v>
+        <v>685</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="28">
@@ -1656,22 +1656,22 @@
         <v>29</v>
       </c>
       <c r="D28" s="0" t="n">
-        <v>23349</v>
+        <v>23318</v>
       </c>
       <c r="E28" s="0" t="n">
-        <v>22261</v>
+        <v>22286</v>
       </c>
       <c r="F28" s="0" t="n">
-        <v>357047</v>
+        <v>440569</v>
       </c>
       <c r="G28" s="0" t="n">
-        <v>70406</v>
+        <v>78559</v>
       </c>
       <c r="H28" s="0" t="n">
-        <v>15.29</v>
+        <v>18.89</v>
       </c>
       <c r="I28" s="0" t="n">
-        <v>554</v>
+        <v>625</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="29">
@@ -1685,22 +1685,22 @@
         <v>26</v>
       </c>
       <c r="D29" s="0" t="n">
-        <v>21464</v>
+        <v>21440</v>
       </c>
       <c r="E29" s="0" t="n">
-        <v>19657</v>
+        <v>19686</v>
       </c>
       <c r="F29" s="0" t="n">
-        <v>307116</v>
+        <v>387837</v>
       </c>
       <c r="G29" s="0" t="n">
-        <v>58982</v>
+        <v>71315</v>
       </c>
       <c r="H29" s="0" t="n">
-        <v>14.31</v>
+        <v>18.09</v>
       </c>
       <c r="I29" s="0" t="n">
-        <v>536</v>
+        <v>598</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="30">
@@ -1714,22 +1714,22 @@
         <v>14</v>
       </c>
       <c r="D30" s="0" t="n">
-        <v>20848</v>
+        <v>20890</v>
       </c>
       <c r="E30" s="0" t="n">
-        <v>18095</v>
+        <v>18119</v>
       </c>
       <c r="F30" s="0" t="n">
-        <v>515565</v>
+        <v>653728</v>
       </c>
       <c r="G30" s="0" t="n">
-        <v>72230</v>
+        <v>84416</v>
       </c>
       <c r="H30" s="0" t="n">
-        <v>24.73</v>
+        <v>31.29</v>
       </c>
       <c r="I30" s="0" t="n">
-        <v>747</v>
+        <v>843</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="31">
@@ -1743,22 +1743,22 @@
         <v>46</v>
       </c>
       <c r="D31" s="0" t="n">
-        <v>20716</v>
+        <v>20773</v>
       </c>
       <c r="E31" s="0" t="n">
-        <v>18584</v>
+        <v>18657</v>
       </c>
       <c r="F31" s="0" t="n">
-        <v>374147</v>
+        <v>478769</v>
       </c>
       <c r="G31" s="0" t="n">
-        <v>75703</v>
+        <v>91208</v>
       </c>
       <c r="H31" s="0" t="n">
-        <v>18.06</v>
+        <v>23.05</v>
       </c>
       <c r="I31" s="0" t="n">
-        <v>567</v>
+        <v>652</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="32">
@@ -1772,22 +1772,22 @@
         <v>31</v>
       </c>
       <c r="D32" s="0" t="n">
-        <v>20590</v>
+        <v>20579</v>
       </c>
       <c r="E32" s="0" t="n">
-        <v>18081</v>
+        <v>18073</v>
       </c>
       <c r="F32" s="0" t="n">
-        <v>515711</v>
+        <v>649167</v>
       </c>
       <c r="G32" s="0" t="n">
-        <v>64273</v>
+        <v>74899</v>
       </c>
       <c r="H32" s="0" t="n">
-        <v>25.05</v>
+        <v>31.55</v>
       </c>
       <c r="I32" s="0" t="n">
-        <v>821</v>
+        <v>914</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="33">
@@ -1801,22 +1801,22 @@
         <v>14</v>
       </c>
       <c r="D33" s="0" t="n">
-        <v>20253</v>
+        <v>20235</v>
       </c>
       <c r="E33" s="0" t="n">
-        <v>18235</v>
+        <v>18231</v>
       </c>
       <c r="F33" s="0" t="n">
-        <v>541940</v>
+        <v>683054</v>
       </c>
       <c r="G33" s="0" t="n">
-        <v>71071</v>
+        <v>81651</v>
       </c>
       <c r="H33" s="0" t="n">
-        <v>26.76</v>
+        <v>33.76</v>
       </c>
       <c r="I33" s="0" t="n">
-        <v>756</v>
+        <v>847</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="34">
@@ -1830,22 +1830,22 @@
         <v>12</v>
       </c>
       <c r="D34" s="0" t="n">
-        <v>20169</v>
+        <v>20134</v>
       </c>
       <c r="E34" s="0" t="n">
-        <v>18223</v>
+        <v>18211</v>
       </c>
       <c r="F34" s="0" t="n">
-        <v>620343</v>
+        <v>780082</v>
       </c>
       <c r="G34" s="0" t="n">
-        <v>61807</v>
+        <v>68426</v>
       </c>
       <c r="H34" s="0" t="n">
-        <v>30.76</v>
+        <v>38.74</v>
       </c>
       <c r="I34" s="0" t="n">
-        <v>697</v>
+        <v>806</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="35">
@@ -1859,22 +1859,22 @@
         <v>14</v>
       </c>
       <c r="D35" s="0" t="n">
-        <v>19720</v>
+        <v>19689</v>
       </c>
       <c r="E35" s="0" t="n">
-        <v>17210</v>
+        <v>17240</v>
       </c>
       <c r="F35" s="0" t="n">
-        <v>420136</v>
+        <v>521471</v>
       </c>
       <c r="G35" s="0" t="n">
-        <v>54466</v>
+        <v>62765</v>
       </c>
       <c r="H35" s="0" t="n">
-        <v>21.31</v>
+        <v>26.49</v>
       </c>
       <c r="I35" s="0" t="n">
-        <v>610</v>
+        <v>685</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="36">
@@ -1888,22 +1888,22 @@
         <v>12</v>
       </c>
       <c r="D36" s="0" t="n">
-        <v>19199</v>
+        <v>19175</v>
       </c>
       <c r="E36" s="0" t="n">
-        <v>17252</v>
+        <v>17255</v>
       </c>
       <c r="F36" s="0" t="n">
-        <v>539344</v>
+        <v>687833</v>
       </c>
       <c r="G36" s="0" t="n">
-        <v>57258</v>
+        <v>65520</v>
       </c>
       <c r="H36" s="0" t="n">
-        <v>28.09</v>
+        <v>35.87</v>
       </c>
       <c r="I36" s="0" t="n">
-        <v>687</v>
+        <v>800</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="37">
@@ -1917,22 +1917,22 @@
         <v>31</v>
       </c>
       <c r="D37" s="0" t="n">
-        <v>18121</v>
+        <v>18017</v>
       </c>
       <c r="E37" s="0" t="n">
-        <v>17263</v>
+        <v>17291</v>
       </c>
       <c r="F37" s="0" t="n">
-        <v>433815</v>
+        <v>545776</v>
       </c>
       <c r="G37" s="0" t="n">
-        <v>59769</v>
+        <v>70644</v>
       </c>
       <c r="H37" s="0" t="n">
-        <v>23.94</v>
+        <v>30.29</v>
       </c>
       <c r="I37" s="0" t="n">
-        <v>478</v>
+        <v>568</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="38">
@@ -1946,22 +1946,22 @@
         <v>54</v>
       </c>
       <c r="D38" s="0" t="n">
-        <v>15696</v>
+        <v>15711</v>
       </c>
       <c r="E38" s="0" t="n">
-        <v>15011</v>
+        <v>15147</v>
       </c>
       <c r="F38" s="0" t="n">
-        <v>238506</v>
+        <v>308193</v>
       </c>
       <c r="G38" s="0" t="n">
-        <v>49433</v>
+        <v>61450</v>
       </c>
       <c r="H38" s="0" t="n">
-        <v>15.2</v>
+        <v>19.62</v>
       </c>
       <c r="I38" s="0" t="n">
-        <v>349</v>
+        <v>409</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="39">
@@ -1975,22 +1975,22 @@
         <v>22</v>
       </c>
       <c r="D39" s="0" t="n">
-        <v>15352</v>
+        <v>15407</v>
       </c>
       <c r="E39" s="0" t="n">
-        <v>13165</v>
+        <v>13199</v>
       </c>
       <c r="F39" s="0" t="n">
-        <v>340907</v>
+        <v>440883</v>
       </c>
       <c r="G39" s="0" t="n">
-        <v>45756</v>
+        <v>53612</v>
       </c>
       <c r="H39" s="0" t="n">
-        <v>22.21</v>
+        <v>28.62</v>
       </c>
       <c r="I39" s="0" t="n">
-        <v>633</v>
+        <v>716</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="40">
@@ -2004,22 +2004,22 @@
         <v>29</v>
       </c>
       <c r="D40" s="0" t="n">
-        <v>15248</v>
+        <v>15312</v>
       </c>
       <c r="E40" s="0" t="n">
-        <v>14589</v>
+        <v>14688</v>
       </c>
       <c r="F40" s="0" t="n">
-        <v>171031</v>
+        <v>213305</v>
       </c>
       <c r="G40" s="0" t="n">
-        <v>33723</v>
+        <v>38258</v>
       </c>
       <c r="H40" s="0" t="n">
-        <v>11.22</v>
+        <v>13.93</v>
       </c>
       <c r="I40" s="0" t="n">
-        <v>364</v>
+        <v>419</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="41">
@@ -2033,22 +2033,22 @@
         <v>14</v>
       </c>
       <c r="D41" s="0" t="n">
-        <v>13792</v>
+        <v>13872</v>
       </c>
       <c r="E41" s="0" t="n">
-        <v>11831</v>
+        <v>11847</v>
       </c>
       <c r="F41" s="0" t="n">
-        <v>345200</v>
+        <v>441256</v>
       </c>
       <c r="G41" s="0" t="n">
-        <v>37996</v>
+        <v>43222</v>
       </c>
       <c r="H41" s="0" t="n">
-        <v>25.03</v>
+        <v>31.81</v>
       </c>
       <c r="I41" s="0" t="n">
-        <v>628</v>
+        <v>711</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="42">
@@ -2062,22 +2062,22 @@
         <v>12</v>
       </c>
       <c r="D42" s="0" t="n">
-        <v>13763</v>
+        <v>13722</v>
       </c>
       <c r="E42" s="0" t="n">
-        <v>12935</v>
+        <v>12936</v>
       </c>
       <c r="F42" s="0" t="n">
-        <v>199077</v>
+        <v>256063</v>
       </c>
       <c r="G42" s="0" t="n">
-        <v>32822</v>
+        <v>39455</v>
       </c>
       <c r="H42" s="0" t="n">
-        <v>14.46</v>
+        <v>18.66</v>
       </c>
       <c r="I42" s="0" t="n">
-        <v>396</v>
+        <v>452</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="43">
@@ -2091,22 +2091,22 @@
         <v>26</v>
       </c>
       <c r="D43" s="0" t="n">
-        <v>13529</v>
+        <v>13486</v>
       </c>
       <c r="E43" s="0" t="n">
-        <v>12234</v>
+        <v>12244</v>
       </c>
       <c r="F43" s="0" t="n">
-        <v>230736</v>
+        <v>291643</v>
       </c>
       <c r="G43" s="0" t="n">
-        <v>40338</v>
+        <v>48094</v>
       </c>
       <c r="H43" s="0" t="n">
-        <v>17.05</v>
+        <v>21.63</v>
       </c>
       <c r="I43" s="0" t="n">
-        <v>510</v>
+        <v>568</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="44">
@@ -2120,22 +2120,22 @@
         <v>12</v>
       </c>
       <c r="D44" s="0" t="n">
-        <v>11843</v>
+        <v>11888</v>
       </c>
       <c r="E44" s="0" t="n">
-        <v>11269</v>
+        <v>11365</v>
       </c>
       <c r="F44" s="0" t="n">
-        <v>190407</v>
+        <v>241646</v>
       </c>
       <c r="G44" s="0" t="n">
-        <v>42766</v>
+        <v>52574</v>
       </c>
       <c r="H44" s="0" t="n">
-        <v>16.08</v>
+        <v>20.33</v>
       </c>
       <c r="I44" s="0" t="n">
-        <v>353</v>
+        <v>428</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="45">
@@ -2149,22 +2149,22 @@
         <v>26</v>
       </c>
       <c r="D45" s="0" t="n">
-        <v>11126</v>
+        <v>11102</v>
       </c>
       <c r="E45" s="0" t="n">
-        <v>10415</v>
+        <v>10425</v>
       </c>
       <c r="F45" s="0" t="n">
-        <v>217344</v>
+        <v>274878</v>
       </c>
       <c r="G45" s="0" t="n">
-        <v>41341</v>
+        <v>48910</v>
       </c>
       <c r="H45" s="0" t="n">
-        <v>19.53</v>
+        <v>24.76</v>
       </c>
       <c r="I45" s="0" t="n">
-        <v>451</v>
+        <v>515</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="46">
@@ -2178,22 +2178,22 @@
         <v>29</v>
       </c>
       <c r="D46" s="0" t="n">
-        <v>11116</v>
+        <v>11095</v>
       </c>
       <c r="E46" s="0" t="n">
-        <v>10265</v>
+        <v>10280</v>
       </c>
       <c r="F46" s="0" t="n">
-        <v>206188</v>
+        <v>257291</v>
       </c>
       <c r="G46" s="0" t="n">
-        <v>30758</v>
+        <v>35311</v>
       </c>
       <c r="H46" s="0" t="n">
-        <v>18.55</v>
+        <v>23.19</v>
       </c>
       <c r="I46" s="0" t="n">
-        <v>540</v>
+        <v>599</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="47">
@@ -2207,22 +2207,22 @@
         <v>29</v>
       </c>
       <c r="D47" s="0" t="n">
-        <v>10527</v>
+        <v>10561</v>
       </c>
       <c r="E47" s="0" t="n">
-        <v>10146</v>
+        <v>10179</v>
       </c>
       <c r="F47" s="0" t="n">
-        <v>100549</v>
+        <v>123334</v>
       </c>
       <c r="G47" s="0" t="n">
-        <v>28078</v>
+        <v>32903</v>
       </c>
       <c r="H47" s="0" t="n">
-        <v>9.55</v>
+        <v>11.68</v>
       </c>
       <c r="I47" s="0" t="n">
-        <v>323</v>
+        <v>358</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="48">
@@ -2236,22 +2236,22 @@
         <v>26</v>
       </c>
       <c r="D48" s="0" t="n">
-        <v>8470</v>
+        <v>8490</v>
       </c>
       <c r="E48" s="0" t="n">
-        <v>7859</v>
+        <v>7899</v>
       </c>
       <c r="F48" s="0" t="n">
-        <v>118295</v>
+        <v>146689</v>
       </c>
       <c r="G48" s="0" t="n">
-        <v>19153</v>
+        <v>22648</v>
       </c>
       <c r="H48" s="0" t="n">
-        <v>13.97</v>
+        <v>17.28</v>
       </c>
       <c r="I48" s="0" t="n">
-        <v>356</v>
+        <v>405</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="49">
@@ -2265,22 +2265,22 @@
         <v>29</v>
       </c>
       <c r="D49" s="0" t="n">
-        <v>8070</v>
+        <v>8076</v>
       </c>
       <c r="E49" s="0" t="n">
-        <v>7768</v>
+        <v>7777</v>
       </c>
       <c r="F49" s="0" t="n">
-        <v>91931</v>
+        <v>112207</v>
       </c>
       <c r="G49" s="0" t="n">
-        <v>19956</v>
+        <v>22333</v>
       </c>
       <c r="H49" s="0" t="n">
-        <v>11.39</v>
+        <v>13.89</v>
       </c>
       <c r="I49" s="0" t="n">
-        <v>331</v>
+        <v>355</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="50">
@@ -2294,22 +2294,22 @@
         <v>29</v>
       </c>
       <c r="D50" s="0" t="n">
-        <v>7762</v>
+        <v>7793</v>
       </c>
       <c r="E50" s="0" t="n">
-        <v>7096</v>
+        <v>7170</v>
       </c>
       <c r="F50" s="0" t="n">
-        <v>119999</v>
+        <v>149315</v>
       </c>
       <c r="G50" s="0" t="n">
-        <v>18594</v>
+        <v>21426</v>
       </c>
       <c r="H50" s="0" t="n">
-        <v>15.46</v>
+        <v>19.16</v>
       </c>
       <c r="I50" s="0" t="n">
-        <v>307</v>
+        <v>350</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="51">
@@ -2323,22 +2323,22 @@
         <v>12</v>
       </c>
       <c r="D51" s="0" t="n">
-        <v>6931</v>
+        <v>6984</v>
       </c>
       <c r="E51" s="0" t="n">
-        <v>6646</v>
+        <v>6706</v>
       </c>
       <c r="F51" s="0" t="n">
-        <v>84588</v>
+        <v>109454</v>
       </c>
       <c r="G51" s="0" t="n">
-        <v>20172</v>
+        <v>25327</v>
       </c>
       <c r="H51" s="0" t="n">
-        <v>12.2</v>
+        <v>15.67</v>
       </c>
       <c r="I51" s="0" t="n">
-        <v>284</v>
+        <v>318</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="52">
@@ -2352,22 +2352,22 @@
         <v>46</v>
       </c>
       <c r="D52" s="0" t="n">
-        <v>6692</v>
+        <v>6720</v>
       </c>
       <c r="E52" s="0" t="n">
-        <v>6350</v>
+        <v>6387</v>
       </c>
       <c r="F52" s="0" t="n">
-        <v>81448</v>
+        <v>104977</v>
       </c>
       <c r="G52" s="0" t="n">
-        <v>16373</v>
+        <v>19180</v>
       </c>
       <c r="H52" s="0" t="n">
-        <v>12.17</v>
+        <v>15.62</v>
       </c>
       <c r="I52" s="0" t="n">
-        <v>235</v>
+        <v>271</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="53">
@@ -2381,22 +2381,22 @@
         <v>29</v>
       </c>
       <c r="D53" s="0" t="n">
-        <v>6684</v>
+        <v>6703</v>
       </c>
       <c r="E53" s="0" t="n">
-        <v>6198</v>
+        <v>6222</v>
       </c>
       <c r="F53" s="0" t="n">
-        <v>94028</v>
+        <v>118507</v>
       </c>
       <c r="G53" s="0" t="n">
-        <v>13721</v>
+        <v>16105</v>
       </c>
       <c r="H53" s="0" t="n">
-        <v>14.07</v>
+        <v>17.68</v>
       </c>
       <c r="I53" s="0" t="n">
-        <v>337</v>
+        <v>380</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="54">
@@ -2410,22 +2410,22 @@
         <v>46</v>
       </c>
       <c r="D54" s="0" t="n">
-        <v>6333</v>
+        <v>6388</v>
       </c>
       <c r="E54" s="0" t="n">
-        <v>5836</v>
+        <v>5877</v>
       </c>
       <c r="F54" s="0" t="n">
-        <v>65932</v>
+        <v>86365</v>
       </c>
       <c r="G54" s="0" t="n">
-        <v>13696</v>
+        <v>17783</v>
       </c>
       <c r="H54" s="0" t="n">
-        <v>10.41</v>
+        <v>13.52</v>
       </c>
       <c r="I54" s="0" t="n">
-        <v>260</v>
+        <v>303</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="55">
@@ -2442,19 +2442,19 @@
         <v>6248</v>
       </c>
       <c r="E55" s="0" t="n">
-        <v>5823</v>
+        <v>5829</v>
       </c>
       <c r="F55" s="0" t="n">
-        <v>111431</v>
+        <v>139250</v>
       </c>
       <c r="G55" s="0" t="n">
-        <v>15306</v>
+        <v>17361</v>
       </c>
       <c r="H55" s="0" t="n">
-        <v>17.83</v>
+        <v>22.29</v>
       </c>
       <c r="I55" s="0" t="n">
-        <v>361</v>
+        <v>409</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="56">
@@ -2468,22 +2468,22 @@
         <v>46</v>
       </c>
       <c r="D56" s="0" t="n">
-        <v>5369</v>
+        <v>5362</v>
       </c>
       <c r="E56" s="0" t="n">
-        <v>5213</v>
+        <v>5232</v>
       </c>
       <c r="F56" s="0" t="n">
-        <v>55662</v>
+        <v>70445</v>
       </c>
       <c r="G56" s="0" t="n">
-        <v>13403</v>
+        <v>16220</v>
       </c>
       <c r="H56" s="0" t="n">
-        <v>10.37</v>
+        <v>13.14</v>
       </c>
       <c r="I56" s="0" t="n">
-        <v>213</v>
+        <v>239</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="57">
@@ -2497,22 +2497,22 @@
         <v>46</v>
       </c>
       <c r="D57" s="0" t="n">
-        <v>4972</v>
+        <v>5040</v>
       </c>
       <c r="E57" s="0" t="n">
-        <v>4487</v>
+        <v>4576</v>
       </c>
       <c r="F57" s="0" t="n">
-        <v>51238</v>
+        <v>64167</v>
       </c>
       <c r="G57" s="0" t="n">
-        <v>11116</v>
+        <v>14103</v>
       </c>
       <c r="H57" s="0" t="n">
-        <v>10.31</v>
+        <v>12.73</v>
       </c>
       <c r="I57" s="0" t="n">
-        <v>232</v>
+        <v>261</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="58">
@@ -2526,22 +2526,22 @@
         <v>29</v>
       </c>
       <c r="D58" s="0" t="n">
-        <v>4253</v>
+        <v>4269</v>
       </c>
       <c r="E58" s="0" t="n">
-        <v>4022</v>
+        <v>4033</v>
       </c>
       <c r="F58" s="0" t="n">
-        <v>66494</v>
+        <v>82890</v>
       </c>
       <c r="G58" s="0" t="n">
-        <v>7958</v>
+        <v>9185</v>
       </c>
       <c r="H58" s="0" t="n">
-        <v>15.63</v>
+        <v>19.42</v>
       </c>
       <c r="I58" s="0" t="n">
-        <v>305</v>
+        <v>347</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="59">
@@ -2555,22 +2555,22 @@
         <v>12</v>
       </c>
       <c r="D59" s="0" t="n">
-        <v>4201</v>
+        <v>4188</v>
       </c>
       <c r="E59" s="0" t="n">
-        <v>3940</v>
+        <v>3944</v>
       </c>
       <c r="F59" s="0" t="n">
-        <v>68049</v>
+        <v>87126</v>
       </c>
       <c r="G59" s="0" t="n">
-        <v>10586</v>
+        <v>13322</v>
       </c>
       <c r="H59" s="0" t="n">
-        <v>16.2</v>
+        <v>20.8</v>
       </c>
       <c r="I59" s="0" t="n">
-        <v>252</v>
+        <v>304</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="60">
@@ -2584,22 +2584,22 @@
         <v>12</v>
       </c>
       <c r="D60" s="0" t="n">
-        <v>4041</v>
+        <v>4017</v>
       </c>
       <c r="E60" s="0" t="n">
-        <v>3810</v>
+        <v>3811</v>
       </c>
       <c r="F60" s="0" t="n">
-        <v>69030</v>
+        <v>86926</v>
       </c>
       <c r="G60" s="0" t="n">
-        <v>11474</v>
+        <v>13733</v>
       </c>
       <c r="H60" s="0" t="n">
-        <v>17.08</v>
+        <v>21.64</v>
       </c>
       <c r="I60" s="0" t="n">
-        <v>269</v>
+        <v>316</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="61">
@@ -2613,22 +2613,22 @@
         <v>31</v>
       </c>
       <c r="D61" s="0" t="n">
-        <v>3853</v>
+        <v>3860</v>
       </c>
       <c r="E61" s="0" t="n">
-        <v>3545</v>
+        <v>3551</v>
       </c>
       <c r="F61" s="0" t="n">
-        <v>67619</v>
+        <v>87361</v>
       </c>
       <c r="G61" s="0" t="n">
-        <v>6876</v>
+        <v>8074</v>
       </c>
       <c r="H61" s="0" t="n">
-        <v>17.55</v>
+        <v>22.63</v>
       </c>
       <c r="I61" s="0" t="n">
-        <v>268</v>
+        <v>329</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="62">
@@ -2642,22 +2642,22 @@
         <v>29</v>
       </c>
       <c r="D62" s="0" t="n">
-        <v>3535</v>
+        <v>3503</v>
       </c>
       <c r="E62" s="0" t="n">
-        <v>3390</v>
+        <v>3362</v>
       </c>
       <c r="F62" s="0" t="n">
-        <v>54661</v>
+        <v>69507</v>
       </c>
       <c r="G62" s="0" t="n">
-        <v>8315</v>
+        <v>9342</v>
       </c>
       <c r="H62" s="0" t="n">
-        <v>15.46</v>
+        <v>19.84</v>
       </c>
       <c r="I62" s="0" t="n">
-        <v>265</v>
+        <v>298</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="63">
@@ -2671,22 +2671,22 @@
         <v>29</v>
       </c>
       <c r="D63" s="0" t="n">
-        <v>3093</v>
+        <v>3081</v>
       </c>
       <c r="E63" s="0" t="n">
-        <v>2879</v>
+        <v>2878</v>
       </c>
       <c r="F63" s="0" t="n">
-        <v>89086</v>
+        <v>110625</v>
       </c>
       <c r="G63" s="0" t="n">
-        <v>9643</v>
+        <v>10798</v>
       </c>
       <c r="H63" s="0" t="n">
-        <v>28.8</v>
+        <v>35.91</v>
       </c>
       <c r="I63" s="0" t="n">
-        <v>346</v>
+        <v>383</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="64">
@@ -2700,22 +2700,22 @@
         <v>31</v>
       </c>
       <c r="D64" s="0" t="n">
-        <v>2831</v>
+        <v>2830</v>
       </c>
       <c r="E64" s="0" t="n">
-        <v>2595</v>
+        <v>2607</v>
       </c>
       <c r="F64" s="0" t="n">
-        <v>68809</v>
+        <v>86064</v>
       </c>
       <c r="G64" s="0" t="n">
-        <v>6131</v>
+        <v>6791</v>
       </c>
       <c r="H64" s="0" t="n">
-        <v>24.31</v>
+        <v>30.41</v>
       </c>
       <c r="I64" s="0" t="n">
-        <v>238</v>
+        <v>295</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="65">
@@ -2729,22 +2729,22 @@
         <v>31</v>
       </c>
       <c r="D65" s="0" t="n">
-        <v>2624</v>
+        <v>2618</v>
       </c>
       <c r="E65" s="0" t="n">
-        <v>2491</v>
+        <v>2493</v>
       </c>
       <c r="F65" s="0" t="n">
-        <v>42704</v>
+        <v>55165</v>
       </c>
       <c r="G65" s="0" t="n">
-        <v>4892</v>
+        <v>6070</v>
       </c>
       <c r="H65" s="0" t="n">
-        <v>16.27</v>
+        <v>21.07</v>
       </c>
       <c r="I65" s="0" t="n">
-        <v>219</v>
+        <v>251</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="66">
@@ -2758,22 +2758,22 @@
         <v>46</v>
       </c>
       <c r="D66" s="0" t="n">
-        <v>2583</v>
+        <v>2576</v>
       </c>
       <c r="E66" s="0" t="n">
-        <v>2291</v>
+        <v>2293</v>
       </c>
       <c r="F66" s="0" t="n">
-        <v>72090</v>
+        <v>92999</v>
       </c>
       <c r="G66" s="0" t="n">
-        <v>9467</v>
+        <v>11541</v>
       </c>
       <c r="H66" s="0" t="n">
-        <v>27.91</v>
+        <v>36.1</v>
       </c>
       <c r="I66" s="0" t="n">
-        <v>310</v>
+        <v>346</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="67">
@@ -2787,22 +2787,22 @@
         <v>12</v>
       </c>
       <c r="D67" s="0" t="n">
-        <v>2449</v>
+        <v>2432</v>
       </c>
       <c r="E67" s="0" t="n">
-        <v>2355</v>
+        <v>2363</v>
       </c>
       <c r="F67" s="0" t="n">
-        <v>16289</v>
+        <v>20329</v>
       </c>
       <c r="G67" s="0" t="n">
-        <v>3023</v>
+        <v>3783</v>
       </c>
       <c r="H67" s="0" t="n">
-        <v>6.65</v>
+        <v>8.36</v>
       </c>
       <c r="I67" s="0" t="n">
-        <v>138</v>
+        <v>163</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="68">
@@ -2816,22 +2816,22 @@
         <v>31</v>
       </c>
       <c r="D68" s="0" t="n">
-        <v>2392</v>
+        <v>2401</v>
       </c>
       <c r="E68" s="0" t="n">
-        <v>2162</v>
+        <v>2164</v>
       </c>
       <c r="F68" s="0" t="n">
-        <v>48761</v>
+        <v>61170</v>
       </c>
       <c r="G68" s="0" t="n">
-        <v>4435</v>
+        <v>5096</v>
       </c>
       <c r="H68" s="0" t="n">
-        <v>20.39</v>
+        <v>25.48</v>
       </c>
       <c r="I68" s="0" t="n">
-        <v>264</v>
+        <v>295</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="69">
@@ -2845,22 +2845,22 @@
         <v>26</v>
       </c>
       <c r="D69" s="0" t="n">
-        <v>2364</v>
+        <v>2361</v>
       </c>
       <c r="E69" s="0" t="n">
-        <v>2194</v>
+        <v>2199</v>
       </c>
       <c r="F69" s="0" t="n">
-        <v>19122</v>
+        <v>23793</v>
       </c>
       <c r="G69" s="0" t="n">
-        <v>3406</v>
+        <v>3953</v>
       </c>
       <c r="H69" s="0" t="n">
-        <v>8.09</v>
+        <v>10.08</v>
       </c>
       <c r="I69" s="0" t="n">
-        <v>200</v>
+        <v>223</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="70">
@@ -2874,22 +2874,22 @@
         <v>12</v>
       </c>
       <c r="D70" s="0" t="n">
-        <v>2274</v>
+        <v>2300</v>
       </c>
       <c r="E70" s="0" t="n">
-        <v>1998</v>
+        <v>2033</v>
       </c>
       <c r="F70" s="0" t="n">
-        <v>38275</v>
+        <v>48893</v>
       </c>
       <c r="G70" s="0" t="n">
-        <v>4631</v>
+        <v>5578</v>
       </c>
       <c r="H70" s="0" t="n">
-        <v>16.83</v>
+        <v>21.26</v>
       </c>
       <c r="I70" s="0" t="n">
-        <v>296</v>
+        <v>325</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="71">
@@ -2903,22 +2903,22 @@
         <v>26</v>
       </c>
       <c r="D71" s="0" t="n">
-        <v>2085</v>
+        <v>2080</v>
       </c>
       <c r="E71" s="0" t="n">
-        <v>1924</v>
+        <v>1925</v>
       </c>
       <c r="F71" s="0" t="n">
-        <v>23101</v>
+        <v>29460</v>
       </c>
       <c r="G71" s="0" t="n">
-        <v>1867</v>
+        <v>2156</v>
       </c>
       <c r="H71" s="0" t="n">
-        <v>11.08</v>
+        <v>14.16</v>
       </c>
       <c r="I71" s="0" t="n">
-        <v>254</v>
+        <v>279</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="72">
@@ -2932,22 +2932,22 @@
         <v>14</v>
       </c>
       <c r="D72" s="0" t="n">
-        <v>2065</v>
+        <v>2076</v>
       </c>
       <c r="E72" s="0" t="n">
-        <v>1774</v>
+        <v>1788</v>
       </c>
       <c r="F72" s="0" t="n">
-        <v>48892</v>
+        <v>59863</v>
       </c>
       <c r="G72" s="0" t="n">
-        <v>4964</v>
+        <v>5559</v>
       </c>
       <c r="H72" s="0" t="n">
-        <v>23.68</v>
+        <v>28.84</v>
       </c>
       <c r="I72" s="0" t="n">
-        <v>254</v>
+        <v>303</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="73">
@@ -2961,22 +2961,22 @@
         <v>31</v>
       </c>
       <c r="D73" s="0" t="n">
-        <v>2051</v>
+        <v>2053</v>
       </c>
       <c r="E73" s="0" t="n">
-        <v>1940</v>
+        <v>1949</v>
       </c>
       <c r="F73" s="0" t="n">
-        <v>27936</v>
+        <v>36148</v>
       </c>
       <c r="G73" s="0" t="n">
-        <v>4614</v>
+        <v>6026</v>
       </c>
       <c r="H73" s="0" t="n">
-        <v>13.62</v>
+        <v>17.61</v>
       </c>
       <c r="I73" s="0" t="n">
-        <v>155</v>
+        <v>199</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="74">
@@ -2990,22 +2990,22 @@
         <v>14</v>
       </c>
       <c r="D74" s="0" t="n">
-        <v>2016</v>
+        <v>2007</v>
       </c>
       <c r="E74" s="0" t="n">
-        <v>1819</v>
+        <v>1821</v>
       </c>
       <c r="F74" s="0" t="n">
-        <v>50457</v>
+        <v>63942</v>
       </c>
       <c r="G74" s="0" t="n">
-        <v>4229</v>
+        <v>4700</v>
       </c>
       <c r="H74" s="0" t="n">
-        <v>25.03</v>
+        <v>31.86</v>
       </c>
       <c r="I74" s="0" t="n">
-        <v>243</v>
+        <v>274</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="75">
@@ -3019,22 +3019,22 @@
         <v>46</v>
       </c>
       <c r="D75" s="0" t="n">
-        <v>1916</v>
+        <v>1929</v>
       </c>
       <c r="E75" s="0" t="n">
-        <v>1798</v>
+        <v>1803</v>
       </c>
       <c r="F75" s="0" t="n">
-        <v>44494</v>
+        <v>58792</v>
       </c>
       <c r="G75" s="0" t="n">
-        <v>10183</v>
+        <v>14197</v>
       </c>
       <c r="H75" s="0" t="n">
-        <v>23.22</v>
+        <v>30.48</v>
       </c>
       <c r="I75" s="0" t="n">
-        <v>193</v>
+        <v>226</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="76">
@@ -3048,22 +3048,22 @@
         <v>29</v>
       </c>
       <c r="D76" s="0" t="n">
-        <v>1820</v>
+        <v>1796</v>
       </c>
       <c r="E76" s="0" t="n">
-        <v>1768</v>
+        <v>1751</v>
       </c>
       <c r="F76" s="0" t="n">
-        <v>23719</v>
+        <v>27237</v>
       </c>
       <c r="G76" s="0" t="n">
-        <v>5219</v>
+        <v>5474</v>
       </c>
       <c r="H76" s="0" t="n">
-        <v>13.03</v>
+        <v>15.17</v>
       </c>
       <c r="I76" s="0" t="n">
-        <v>213</v>
+        <v>232</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="77">
@@ -3077,22 +3077,22 @@
         <v>26</v>
       </c>
       <c r="D77" s="0" t="n">
-        <v>1773</v>
+        <v>1763</v>
       </c>
       <c r="E77" s="0" t="n">
         <v>1575</v>
       </c>
       <c r="F77" s="0" t="n">
-        <v>42083</v>
+        <v>52710</v>
       </c>
       <c r="G77" s="0" t="n">
-        <v>5075</v>
+        <v>6239</v>
       </c>
       <c r="H77" s="0" t="n">
-        <v>23.74</v>
+        <v>29.9</v>
       </c>
       <c r="I77" s="0" t="n">
-        <v>288</v>
+        <v>315</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="78">
@@ -3106,22 +3106,22 @@
         <v>29</v>
       </c>
       <c r="D78" s="0" t="n">
-        <v>1671</v>
+        <v>1665</v>
       </c>
       <c r="E78" s="0" t="n">
-        <v>1596</v>
+        <v>1595</v>
       </c>
       <c r="F78" s="0" t="n">
-        <v>23531</v>
+        <v>30717</v>
       </c>
       <c r="G78" s="0" t="n">
-        <v>3191</v>
+        <v>3617</v>
       </c>
       <c r="H78" s="0" t="n">
-        <v>14.08</v>
+        <v>18.45</v>
       </c>
       <c r="I78" s="0" t="n">
-        <v>202</v>
+        <v>225</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="79">
@@ -3138,19 +3138,19 @@
         <v>1589</v>
       </c>
       <c r="E79" s="0" t="n">
-        <v>1382</v>
+        <v>1387</v>
       </c>
       <c r="F79" s="0" t="n">
-        <v>35209</v>
+        <v>46342</v>
       </c>
       <c r="G79" s="0" t="n">
-        <v>4849</v>
+        <v>6258</v>
       </c>
       <c r="H79" s="0" t="n">
-        <v>22.16</v>
+        <v>29.16</v>
       </c>
       <c r="I79" s="0" t="n">
-        <v>191</v>
+        <v>222</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="80">
@@ -3164,22 +3164,22 @@
         <v>14</v>
       </c>
       <c r="D80" s="0" t="n">
-        <v>1534</v>
+        <v>1536</v>
       </c>
       <c r="E80" s="0" t="n">
-        <v>1317</v>
+        <v>1329</v>
       </c>
       <c r="F80" s="0" t="n">
-        <v>55676</v>
+        <v>68327</v>
       </c>
       <c r="G80" s="0" t="n">
-        <v>4433</v>
+        <v>5102</v>
       </c>
       <c r="H80" s="0" t="n">
-        <v>36.29</v>
+        <v>44.48</v>
       </c>
       <c r="I80" s="0" t="n">
-        <v>370</v>
+        <v>393</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="81">
@@ -3193,22 +3193,22 @@
         <v>12</v>
       </c>
       <c r="D81" s="0" t="n">
-        <v>1501</v>
+        <v>1500</v>
       </c>
       <c r="E81" s="0" t="n">
-        <v>1412</v>
+        <v>1419</v>
       </c>
       <c r="F81" s="0" t="n">
-        <v>37007</v>
+        <v>47219</v>
       </c>
       <c r="G81" s="0" t="n">
-        <v>3130</v>
+        <v>3444</v>
       </c>
       <c r="H81" s="0" t="n">
-        <v>24.65</v>
+        <v>31.48</v>
       </c>
       <c r="I81" s="0" t="n">
-        <v>178</v>
+        <v>224</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="82">
@@ -3222,22 +3222,22 @@
         <v>31</v>
       </c>
       <c r="D82" s="0" t="n">
-        <v>1474</v>
+        <v>1473</v>
       </c>
       <c r="E82" s="0" t="n">
-        <v>1301</v>
+        <v>1304</v>
       </c>
       <c r="F82" s="0" t="n">
-        <v>23615</v>
+        <v>31024</v>
       </c>
       <c r="G82" s="0" t="n">
-        <v>2437</v>
+        <v>2871</v>
       </c>
       <c r="H82" s="0" t="n">
-        <v>16.02</v>
+        <v>21.06</v>
       </c>
       <c r="I82" s="0" t="n">
-        <v>176</v>
+        <v>217</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="83">
@@ -3251,22 +3251,22 @@
         <v>26</v>
       </c>
       <c r="D83" s="0" t="n">
-        <v>1459</v>
+        <v>1446</v>
       </c>
       <c r="E83" s="0" t="n">
         <v>1335</v>
       </c>
       <c r="F83" s="0" t="n">
-        <v>27393</v>
+        <v>34319</v>
       </c>
       <c r="G83" s="0" t="n">
-        <v>3099</v>
+        <v>3644</v>
       </c>
       <c r="H83" s="0" t="n">
-        <v>18.78</v>
+        <v>23.73</v>
       </c>
       <c r="I83" s="0" t="n">
-        <v>222</v>
+        <v>243</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="84">
@@ -3280,22 +3280,22 @@
         <v>31</v>
       </c>
       <c r="D84" s="0" t="n">
-        <v>1406</v>
+        <v>1409</v>
       </c>
       <c r="E84" s="0" t="n">
-        <v>1311</v>
+        <v>1314</v>
       </c>
       <c r="F84" s="0" t="n">
-        <v>22086</v>
+        <v>27487</v>
       </c>
       <c r="G84" s="0" t="n">
-        <v>1731</v>
+        <v>1933</v>
       </c>
       <c r="H84" s="0" t="n">
-        <v>15.71</v>
+        <v>19.51</v>
       </c>
       <c r="I84" s="0" t="n">
-        <v>195</v>
+        <v>220</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="85">
@@ -3309,22 +3309,22 @@
         <v>46</v>
       </c>
       <c r="D85" s="0" t="n">
-        <v>1367</v>
+        <v>1362</v>
       </c>
       <c r="E85" s="0" t="n">
-        <v>1257</v>
+        <v>1259</v>
       </c>
       <c r="F85" s="0" t="n">
-        <v>31851</v>
+        <v>40766</v>
       </c>
       <c r="G85" s="0" t="n">
-        <v>4675</v>
+        <v>5732</v>
       </c>
       <c r="H85" s="0" t="n">
-        <v>23.3</v>
+        <v>29.93</v>
       </c>
       <c r="I85" s="0" t="n">
-        <v>205</v>
+        <v>228</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="86">
@@ -3338,22 +3338,22 @@
         <v>46</v>
       </c>
       <c r="D86" s="0" t="n">
-        <v>1358</v>
+        <v>1354</v>
       </c>
       <c r="E86" s="0" t="n">
-        <v>1202</v>
+        <v>1204</v>
       </c>
       <c r="F86" s="0" t="n">
-        <v>30887</v>
+        <v>37098</v>
       </c>
       <c r="G86" s="0" t="n">
-        <v>5019</v>
+        <v>6013</v>
       </c>
       <c r="H86" s="0" t="n">
-        <v>22.74</v>
+        <v>27.4</v>
       </c>
       <c r="I86" s="0" t="n">
-        <v>209</v>
+        <v>236</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="87">
@@ -3367,22 +3367,22 @@
         <v>12</v>
       </c>
       <c r="D87" s="0" t="n">
-        <v>1318</v>
+        <v>1317</v>
       </c>
       <c r="E87" s="0" t="n">
-        <v>1198</v>
+        <v>1202</v>
       </c>
       <c r="F87" s="0" t="n">
-        <v>33007</v>
+        <v>41501</v>
       </c>
       <c r="G87" s="0" t="n">
-        <v>2887</v>
+        <v>3504</v>
       </c>
       <c r="H87" s="0" t="n">
-        <v>25.04</v>
+        <v>31.51</v>
       </c>
       <c r="I87" s="0" t="n">
-        <v>225</v>
+        <v>251</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="88">
@@ -3396,22 +3396,22 @@
         <v>46</v>
       </c>
       <c r="D88" s="0" t="n">
-        <v>1231</v>
+        <v>1237</v>
       </c>
       <c r="E88" s="0" t="n">
-        <v>1114</v>
+        <v>1118</v>
       </c>
       <c r="F88" s="0" t="n">
-        <v>21546</v>
+        <v>27257</v>
       </c>
       <c r="G88" s="0" t="n">
-        <v>3629</v>
+        <v>4478</v>
       </c>
       <c r="H88" s="0" t="n">
-        <v>17.5</v>
+        <v>22.03</v>
       </c>
       <c r="I88" s="0" t="n">
-        <v>167</v>
+        <v>186</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="89">
@@ -3425,22 +3425,22 @@
         <v>29</v>
       </c>
       <c r="D89" s="0" t="n">
-        <v>1100</v>
+        <v>1106</v>
       </c>
       <c r="E89" s="0" t="n">
-        <v>990</v>
+        <v>987</v>
       </c>
       <c r="F89" s="0" t="n">
-        <v>42016</v>
+        <v>49234</v>
       </c>
       <c r="G89" s="0" t="n">
-        <v>3344</v>
+        <v>3588</v>
       </c>
       <c r="H89" s="0" t="n">
-        <v>38.2</v>
+        <v>44.52</v>
       </c>
       <c r="I89" s="0" t="n">
-        <v>219</v>
+        <v>248</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="90">
@@ -3454,22 +3454,22 @@
         <v>29</v>
       </c>
       <c r="D90" s="0" t="n">
-        <v>1096</v>
+        <v>1084</v>
       </c>
       <c r="E90" s="0" t="n">
-        <v>1061</v>
+        <v>1059</v>
       </c>
       <c r="F90" s="0" t="n">
-        <v>21982</v>
+        <v>25125</v>
       </c>
       <c r="G90" s="0" t="n">
-        <v>4602</v>
+        <v>4944</v>
       </c>
       <c r="H90" s="0" t="n">
-        <v>20.06</v>
+        <v>23.18</v>
       </c>
       <c r="I90" s="0" t="n">
-        <v>214</v>
+        <v>235</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="91">
@@ -3483,22 +3483,22 @@
         <v>26</v>
       </c>
       <c r="D91" s="0" t="n">
-        <v>1061</v>
+        <v>1057</v>
       </c>
       <c r="E91" s="0" t="n">
-        <v>971</v>
+        <v>969</v>
       </c>
       <c r="F91" s="0" t="n">
-        <v>19863</v>
+        <v>25571</v>
       </c>
       <c r="G91" s="0" t="n">
-        <v>2937</v>
+        <v>3504</v>
       </c>
       <c r="H91" s="0" t="n">
-        <v>18.72</v>
+        <v>24.19</v>
       </c>
       <c r="I91" s="0" t="n">
-        <v>197</v>
+        <v>223</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="92">
@@ -3512,22 +3512,22 @@
         <v>12</v>
       </c>
       <c r="D92" s="0" t="n">
-        <v>1054</v>
+        <v>1056</v>
       </c>
       <c r="E92" s="0" t="n">
-        <v>951</v>
+        <v>953</v>
       </c>
       <c r="F92" s="0" t="n">
-        <v>18663</v>
+        <v>24534</v>
       </c>
       <c r="G92" s="0" t="n">
-        <v>2973</v>
+        <v>3608</v>
       </c>
       <c r="H92" s="0" t="n">
-        <v>17.71</v>
+        <v>23.23</v>
       </c>
       <c r="I92" s="0" t="n">
-        <v>175</v>
+        <v>202</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="93">
@@ -3541,22 +3541,22 @@
         <v>29</v>
       </c>
       <c r="D93" s="0" t="n">
-        <v>952</v>
+        <v>951</v>
       </c>
       <c r="E93" s="0" t="n">
-        <v>891</v>
+        <v>895</v>
       </c>
       <c r="F93" s="0" t="n">
-        <v>19996</v>
+        <v>23916</v>
       </c>
       <c r="G93" s="0" t="n">
-        <v>1150</v>
+        <v>1275</v>
       </c>
       <c r="H93" s="0" t="n">
-        <v>21</v>
+        <v>25.15</v>
       </c>
       <c r="I93" s="0" t="n">
-        <v>152</v>
+        <v>170</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="94">
@@ -3567,25 +3567,25 @@
         <v>110</v>
       </c>
       <c r="C94" s="0" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="D94" s="0" t="n">
-        <v>900</v>
+        <v>907</v>
       </c>
       <c r="E94" s="0" t="n">
-        <v>800</v>
+        <v>846</v>
       </c>
       <c r="F94" s="0" t="n">
-        <v>19487</v>
+        <v>12038</v>
       </c>
       <c r="G94" s="0" t="n">
-        <v>1823</v>
+        <v>1062</v>
       </c>
       <c r="H94" s="0" t="n">
-        <v>21.65</v>
+        <v>13.27</v>
       </c>
       <c r="I94" s="0" t="n">
-        <v>214</v>
+        <v>144</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="95">
@@ -3596,25 +3596,25 @@
         <v>111</v>
       </c>
       <c r="C95" s="0" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="D95" s="0" t="n">
-        <v>877</v>
+        <v>891</v>
       </c>
       <c r="E95" s="0" t="n">
-        <v>817</v>
+        <v>797</v>
       </c>
       <c r="F95" s="0" t="n">
-        <v>9340</v>
+        <v>24764</v>
       </c>
       <c r="G95" s="0" t="n">
-        <v>885</v>
+        <v>2093</v>
       </c>
       <c r="H95" s="0" t="n">
-        <v>10.65</v>
+        <v>27.79</v>
       </c>
       <c r="I95" s="0" t="n">
-        <v>128</v>
+        <v>235</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="96">
@@ -3628,22 +3628,22 @@
         <v>26</v>
       </c>
       <c r="D96" s="0" t="n">
-        <v>862</v>
+        <v>861</v>
       </c>
       <c r="E96" s="0" t="n">
-        <v>789</v>
+        <v>791</v>
       </c>
       <c r="F96" s="0" t="n">
-        <v>22686</v>
+        <v>28335</v>
       </c>
       <c r="G96" s="0" t="n">
-        <v>899</v>
+        <v>1027</v>
       </c>
       <c r="H96" s="0" t="n">
-        <v>26.32</v>
+        <v>32.91</v>
       </c>
       <c r="I96" s="0" t="n">
-        <v>253</v>
+        <v>281</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="97">
@@ -3654,25 +3654,25 @@
         <v>113</v>
       </c>
       <c r="C97" s="0" t="s">
-        <v>29</v>
+        <v>46</v>
       </c>
       <c r="D97" s="0" t="n">
-        <v>695</v>
+        <v>710</v>
       </c>
       <c r="E97" s="0" t="n">
-        <v>671</v>
+        <v>637</v>
       </c>
       <c r="F97" s="0" t="n">
-        <v>13971</v>
+        <v>12429</v>
       </c>
       <c r="G97" s="0" t="n">
-        <v>2134</v>
+        <v>1086</v>
       </c>
       <c r="H97" s="0" t="n">
-        <v>20.1</v>
+        <v>17.51</v>
       </c>
       <c r="I97" s="0" t="n">
-        <v>138</v>
+        <v>140</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="98">
@@ -3686,22 +3686,22 @@
         <v>46</v>
       </c>
       <c r="D98" s="0" t="n">
-        <v>693</v>
+        <v>698</v>
       </c>
       <c r="E98" s="0" t="n">
-        <v>636</v>
+        <v>609</v>
       </c>
       <c r="F98" s="0" t="n">
-        <v>9480</v>
+        <v>19251</v>
       </c>
       <c r="G98" s="0" t="n">
-        <v>864</v>
+        <v>1973</v>
       </c>
       <c r="H98" s="0" t="n">
-        <v>13.68</v>
+        <v>27.58</v>
       </c>
       <c r="I98" s="0" t="n">
-        <v>119</v>
+        <v>187</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="99">
@@ -3712,25 +3712,25 @@
         <v>115</v>
       </c>
       <c r="C99" s="0" t="s">
-        <v>46</v>
+        <v>29</v>
       </c>
       <c r="D99" s="0" t="n">
-        <v>691</v>
+        <v>697</v>
       </c>
       <c r="E99" s="0" t="n">
-        <v>633</v>
+        <v>673</v>
       </c>
       <c r="F99" s="0" t="n">
-        <v>11218</v>
+        <v>16117</v>
       </c>
       <c r="G99" s="0" t="n">
-        <v>1083</v>
+        <v>2478</v>
       </c>
       <c r="H99" s="0" t="n">
-        <v>16.23</v>
+        <v>23.12</v>
       </c>
       <c r="I99" s="0" t="n">
-        <v>146</v>
+        <v>153</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="100">
@@ -3744,22 +3744,22 @@
         <v>46</v>
       </c>
       <c r="D100" s="0" t="n">
-        <v>690</v>
+        <v>695</v>
       </c>
       <c r="E100" s="0" t="n">
-        <v>606</v>
+        <v>635</v>
       </c>
       <c r="F100" s="0" t="n">
-        <v>14783</v>
+        <v>13755</v>
       </c>
       <c r="G100" s="0" t="n">
-        <v>1682</v>
+        <v>1284</v>
       </c>
       <c r="H100" s="0" t="n">
-        <v>21.42</v>
+        <v>19.79</v>
       </c>
       <c r="I100" s="0" t="n">
-        <v>164</v>
+        <v>159</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="101">
@@ -3773,22 +3773,22 @@
         <v>14</v>
       </c>
       <c r="D101" s="0" t="n">
-        <v>654</v>
+        <v>658</v>
       </c>
       <c r="E101" s="0" t="n">
-        <v>532</v>
+        <v>535</v>
       </c>
       <c r="F101" s="0" t="n">
-        <v>13159</v>
+        <v>17762</v>
       </c>
       <c r="G101" s="0" t="n">
-        <v>885</v>
+        <v>1025</v>
       </c>
       <c r="H101" s="0" t="n">
-        <v>20.12</v>
+        <v>26.99</v>
       </c>
       <c r="I101" s="0" t="n">
-        <v>165</v>
+        <v>185</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="102">
@@ -3802,22 +3802,22 @@
         <v>31</v>
       </c>
       <c r="D102" s="0" t="n">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="E102" s="0" t="n">
-        <v>566</v>
+        <v>567</v>
       </c>
       <c r="F102" s="0" t="n">
-        <v>17863</v>
+        <v>21726</v>
       </c>
       <c r="G102" s="0" t="n">
-        <v>1081</v>
+        <v>1240</v>
       </c>
       <c r="H102" s="0" t="n">
-        <v>29.48</v>
+        <v>35.91</v>
       </c>
       <c r="I102" s="0" t="n">
-        <v>131</v>
+        <v>147</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="103">
@@ -3828,25 +3828,25 @@
         <v>119</v>
       </c>
       <c r="C103" s="0" t="s">
-        <v>12</v>
+        <v>29</v>
       </c>
       <c r="D103" s="0" t="n">
-        <v>554</v>
+        <v>551</v>
       </c>
       <c r="E103" s="0" t="n">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="F103" s="0" t="n">
-        <v>5851</v>
+        <v>5320</v>
       </c>
       <c r="G103" s="0" t="n">
-        <v>1173</v>
+        <v>389</v>
       </c>
       <c r="H103" s="0" t="n">
-        <v>10.56</v>
+        <v>9.66</v>
       </c>
       <c r="I103" s="0" t="n">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="104">
@@ -3857,25 +3857,25 @@
         <v>120</v>
       </c>
       <c r="C104" s="0" t="s">
-        <v>29</v>
+        <v>12</v>
       </c>
       <c r="D104" s="0" t="n">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="E104" s="0" t="n">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="F104" s="0" t="n">
-        <v>4064</v>
+        <v>7777</v>
       </c>
       <c r="G104" s="0" t="n">
-        <v>327</v>
+        <v>1594</v>
       </c>
       <c r="H104" s="0" t="n">
-        <v>7.4</v>
+        <v>14.19</v>
       </c>
       <c r="I104" s="0" t="n">
-        <v>85</v>
+        <v>126</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="105">
@@ -3889,22 +3889,22 @@
         <v>46</v>
       </c>
       <c r="D105" s="0" t="n">
-        <v>545</v>
+        <v>543</v>
       </c>
       <c r="E105" s="0" t="n">
         <v>429</v>
       </c>
       <c r="F105" s="0" t="n">
-        <v>15007</v>
+        <v>18011</v>
       </c>
       <c r="G105" s="0" t="n">
-        <v>712</v>
+        <v>869</v>
       </c>
       <c r="H105" s="0" t="n">
-        <v>27.54</v>
+        <v>33.17</v>
       </c>
       <c r="I105" s="0" t="n">
-        <v>127</v>
+        <v>144</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="106">
@@ -3918,22 +3918,22 @@
         <v>31</v>
       </c>
       <c r="D106" s="0" t="n">
+        <v>541</v>
+      </c>
+      <c r="E106" s="0" t="n">
+        <v>519</v>
+      </c>
+      <c r="F106" s="0" t="n">
+        <v>6886</v>
+      </c>
+      <c r="G106" s="0" t="n">
         <v>544</v>
       </c>
-      <c r="E106" s="0" t="n">
-        <v>518</v>
-      </c>
-      <c r="F106" s="0" t="n">
-        <v>5948</v>
-      </c>
-      <c r="G106" s="0" t="n">
-        <v>463</v>
-      </c>
       <c r="H106" s="0" t="n">
-        <v>10.93</v>
+        <v>12.73</v>
       </c>
       <c r="I106" s="0" t="n">
-        <v>130</v>
+        <v>146</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="107">
@@ -3947,22 +3947,22 @@
         <v>46</v>
       </c>
       <c r="D107" s="0" t="n">
-        <v>524</v>
+        <v>530</v>
       </c>
       <c r="E107" s="0" t="n">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="F107" s="0" t="n">
-        <v>13907</v>
+        <v>17927</v>
       </c>
       <c r="G107" s="0" t="n">
-        <v>1747</v>
+        <v>2083</v>
       </c>
       <c r="H107" s="0" t="n">
-        <v>26.54</v>
+        <v>33.82</v>
       </c>
       <c r="I107" s="0" t="n">
-        <v>166</v>
+        <v>186</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="108">
@@ -3976,22 +3976,22 @@
         <v>46</v>
       </c>
       <c r="D108" s="0" t="n">
-        <v>510</v>
+        <v>512</v>
       </c>
       <c r="E108" s="0" t="n">
-        <v>488</v>
+        <v>491</v>
       </c>
       <c r="F108" s="0" t="n">
-        <v>6149</v>
+        <v>8155</v>
       </c>
       <c r="G108" s="0" t="n">
-        <v>260</v>
+        <v>297</v>
       </c>
       <c r="H108" s="0" t="n">
-        <v>12.06</v>
+        <v>15.93</v>
       </c>
       <c r="I108" s="0" t="n">
-        <v>94</v>
+        <v>112</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="109">
@@ -4005,22 +4005,22 @@
         <v>26</v>
       </c>
       <c r="D109" s="0" t="n">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="E109" s="0" t="n">
         <v>462</v>
       </c>
       <c r="F109" s="0" t="n">
-        <v>24383</v>
+        <v>30428</v>
       </c>
       <c r="G109" s="0" t="n">
-        <v>1378</v>
+        <v>1584</v>
       </c>
       <c r="H109" s="0" t="n">
-        <v>48.86</v>
+        <v>61.22</v>
       </c>
       <c r="I109" s="0" t="n">
-        <v>242</v>
+        <v>260</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="110">
@@ -4031,25 +4031,25 @@
         <v>126</v>
       </c>
       <c r="C110" s="0" t="s">
-        <v>46</v>
+        <v>26</v>
       </c>
       <c r="D110" s="0" t="n">
-        <v>491</v>
+        <v>495</v>
       </c>
       <c r="E110" s="0" t="n">
-        <v>438</v>
+        <v>407</v>
       </c>
       <c r="F110" s="0" t="n">
-        <v>11159</v>
+        <v>5661</v>
       </c>
       <c r="G110" s="0" t="n">
-        <v>799</v>
+        <v>416</v>
       </c>
       <c r="H110" s="0" t="n">
-        <v>22.73</v>
+        <v>11.44</v>
       </c>
       <c r="I110" s="0" t="n">
-        <v>133</v>
+        <v>131</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="111">
@@ -4060,25 +4060,25 @@
         <v>127</v>
       </c>
       <c r="C111" s="0" t="s">
-        <v>26</v>
+        <v>46</v>
       </c>
       <c r="D111" s="0" t="n">
-        <v>490</v>
+        <v>486</v>
       </c>
       <c r="E111" s="0" t="n">
-        <v>407</v>
+        <v>437</v>
       </c>
       <c r="F111" s="0" t="n">
-        <v>4360</v>
+        <v>12999</v>
       </c>
       <c r="G111" s="0" t="n">
-        <v>352</v>
+        <v>838</v>
       </c>
       <c r="H111" s="0" t="n">
-        <v>8.9</v>
+        <v>26.75</v>
       </c>
       <c r="I111" s="0" t="n">
-        <v>117</v>
+        <v>137</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="112">
@@ -4092,22 +4092,22 @@
         <v>46</v>
       </c>
       <c r="D112" s="0" t="n">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="E112" s="0" t="n">
         <v>454</v>
       </c>
       <c r="F112" s="0" t="n">
-        <v>9988</v>
+        <v>12625</v>
       </c>
       <c r="G112" s="0" t="n">
-        <v>1141</v>
+        <v>1359</v>
       </c>
       <c r="H112" s="0" t="n">
-        <v>20.68</v>
+        <v>26.19</v>
       </c>
       <c r="I112" s="0" t="n">
-        <v>126</v>
+        <v>142</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="113">
@@ -4121,22 +4121,22 @@
         <v>29</v>
       </c>
       <c r="D113" s="0" t="n">
-        <v>478</v>
+        <v>475</v>
       </c>
       <c r="E113" s="0" t="n">
-        <v>458</v>
+        <v>455</v>
       </c>
       <c r="F113" s="0" t="n">
-        <v>6309</v>
+        <v>7600</v>
       </c>
       <c r="G113" s="0" t="n">
-        <v>823</v>
+        <v>922</v>
       </c>
       <c r="H113" s="0" t="n">
-        <v>13.2</v>
+        <v>16</v>
       </c>
       <c r="I113" s="0" t="n">
-        <v>135</v>
+        <v>144</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="114">
@@ -4147,25 +4147,25 @@
         <v>130</v>
       </c>
       <c r="C114" s="0" t="s">
-        <v>46</v>
+        <v>26</v>
       </c>
       <c r="D114" s="0" t="n">
-        <v>466</v>
+        <v>471</v>
       </c>
       <c r="E114" s="0" t="n">
-        <v>399</v>
+        <v>348</v>
       </c>
       <c r="F114" s="0" t="n">
-        <v>12037</v>
+        <v>7379</v>
       </c>
       <c r="G114" s="0" t="n">
-        <v>1093</v>
+        <v>491</v>
       </c>
       <c r="H114" s="0" t="n">
-        <v>25.83</v>
+        <v>15.67</v>
       </c>
       <c r="I114" s="0" t="n">
-        <v>151</v>
+        <v>136</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="115">
@@ -4176,25 +4176,25 @@
         <v>131</v>
       </c>
       <c r="C115" s="0" t="s">
-        <v>26</v>
+        <v>46</v>
       </c>
       <c r="D115" s="0" t="n">
-        <v>462</v>
+        <v>465</v>
       </c>
       <c r="E115" s="0" t="n">
-        <v>347</v>
+        <v>400</v>
       </c>
       <c r="F115" s="0" t="n">
-        <v>5736</v>
+        <v>14664</v>
       </c>
       <c r="G115" s="0" t="n">
-        <v>421</v>
+        <v>1288</v>
       </c>
       <c r="H115" s="0" t="n">
-        <v>12.42</v>
+        <v>31.54</v>
       </c>
       <c r="I115" s="0" t="n">
-        <v>121</v>
+        <v>161</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="116">
@@ -4208,22 +4208,22 @@
         <v>31</v>
       </c>
       <c r="D116" s="0" t="n">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="E116" s="0" t="n">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="F116" s="0" t="n">
-        <v>7536</v>
+        <v>8893</v>
       </c>
       <c r="G116" s="0" t="n">
-        <v>330</v>
+        <v>360</v>
       </c>
       <c r="H116" s="0" t="n">
-        <v>16.53</v>
+        <v>19.46</v>
       </c>
       <c r="I116" s="0" t="n">
-        <v>117</v>
+        <v>127</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="117">
@@ -4237,22 +4237,22 @@
         <v>46</v>
       </c>
       <c r="D117" s="0" t="n">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="E117" s="0" t="n">
-        <v>397</v>
+        <v>399</v>
       </c>
       <c r="F117" s="0" t="n">
-        <v>9743</v>
+        <v>11851</v>
       </c>
       <c r="G117" s="0" t="n">
-        <v>984</v>
+        <v>1174</v>
       </c>
       <c r="H117" s="0" t="n">
-        <v>23.09</v>
+        <v>28.15</v>
       </c>
       <c r="I117" s="0" t="n">
-        <v>117</v>
+        <v>125</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="118">
@@ -4266,22 +4266,22 @@
         <v>29</v>
       </c>
       <c r="D118" s="0" t="n">
-        <v>407</v>
+        <v>410</v>
       </c>
       <c r="E118" s="0" t="n">
-        <v>389</v>
+        <v>393</v>
       </c>
       <c r="F118" s="0" t="n">
-        <v>4829</v>
+        <v>5919</v>
       </c>
       <c r="G118" s="0" t="n">
-        <v>890</v>
+        <v>965</v>
       </c>
       <c r="H118" s="0" t="n">
-        <v>11.86</v>
+        <v>14.44</v>
       </c>
       <c r="I118" s="0" t="n">
-        <v>80</v>
+        <v>95</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="119">
@@ -4295,22 +4295,22 @@
         <v>12</v>
       </c>
       <c r="D119" s="0" t="n">
-        <v>396</v>
+        <v>392</v>
       </c>
       <c r="E119" s="0" t="n">
-        <v>351</v>
+        <v>342</v>
       </c>
       <c r="F119" s="0" t="n">
-        <v>4622</v>
+        <v>5906</v>
       </c>
       <c r="G119" s="0" t="n">
-        <v>620</v>
+        <v>700</v>
       </c>
       <c r="H119" s="0" t="n">
-        <v>11.67</v>
+        <v>15.07</v>
       </c>
       <c r="I119" s="0" t="n">
-        <v>105</v>
+        <v>129</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="120">
@@ -4324,22 +4324,22 @@
         <v>31</v>
       </c>
       <c r="D120" s="0" t="n">
-        <v>388</v>
+        <v>391</v>
       </c>
       <c r="E120" s="0" t="n">
-        <v>375</v>
+        <v>380</v>
       </c>
       <c r="F120" s="0" t="n">
-        <v>5151</v>
+        <v>6794</v>
       </c>
       <c r="G120" s="0" t="n">
-        <v>497</v>
+        <v>596</v>
       </c>
       <c r="H120" s="0" t="n">
-        <v>13.28</v>
+        <v>17.38</v>
       </c>
       <c r="I120" s="0" t="n">
-        <v>98</v>
+        <v>119</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="121">
@@ -4353,22 +4353,22 @@
         <v>46</v>
       </c>
       <c r="D121" s="0" t="n">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="E121" s="0" t="n">
         <v>358</v>
       </c>
       <c r="F121" s="0" t="n">
-        <v>6518</v>
+        <v>7553</v>
       </c>
       <c r="G121" s="0" t="n">
-        <v>494</v>
+        <v>597</v>
       </c>
       <c r="H121" s="0" t="n">
-        <v>17.24</v>
+        <v>19.93</v>
       </c>
       <c r="I121" s="0" t="n">
-        <v>134</v>
+        <v>142</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="122">
@@ -4382,22 +4382,22 @@
         <v>12</v>
       </c>
       <c r="D122" s="0" t="n">
-        <v>352</v>
+        <v>354</v>
       </c>
       <c r="E122" s="0" t="n">
         <v>325</v>
       </c>
       <c r="F122" s="0" t="n">
-        <v>5522</v>
+        <v>7312</v>
       </c>
       <c r="G122" s="0" t="n">
-        <v>689</v>
+        <v>836</v>
       </c>
       <c r="H122" s="0" t="n">
-        <v>15.69</v>
+        <v>20.66</v>
       </c>
       <c r="I122" s="0" t="n">
-        <v>117</v>
+        <v>136</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="123">
@@ -4411,22 +4411,22 @@
         <v>12</v>
       </c>
       <c r="D123" s="0" t="n">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="E123" s="0" t="n">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="F123" s="0" t="n">
-        <v>9324</v>
+        <v>11394</v>
       </c>
       <c r="G123" s="0" t="n">
-        <v>1050</v>
+        <v>1134</v>
       </c>
       <c r="H123" s="0" t="n">
-        <v>28.34</v>
+        <v>34.84</v>
       </c>
       <c r="I123" s="0" t="n">
-        <v>128</v>
+        <v>142</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="124">
@@ -4437,25 +4437,25 @@
         <v>140</v>
       </c>
       <c r="C124" s="0" t="s">
-        <v>26</v>
+        <v>46</v>
       </c>
       <c r="D124" s="0" t="n">
-        <v>310</v>
+        <v>318</v>
       </c>
       <c r="E124" s="0" t="n">
-        <v>285</v>
+        <v>256</v>
       </c>
       <c r="F124" s="0" t="n">
-        <v>6510</v>
+        <v>7136</v>
       </c>
       <c r="G124" s="0" t="n">
-        <v>433</v>
+        <v>827</v>
       </c>
       <c r="H124" s="0" t="n">
-        <v>21</v>
+        <v>22.44</v>
       </c>
       <c r="I124" s="0" t="n">
-        <v>151</v>
+        <v>112</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="125">
@@ -4466,25 +4466,25 @@
         <v>141</v>
       </c>
       <c r="C125" s="0" t="s">
-        <v>46</v>
+        <v>26</v>
       </c>
       <c r="D125" s="0" t="n">
-        <v>302</v>
+        <v>309</v>
       </c>
       <c r="E125" s="0" t="n">
-        <v>279</v>
+        <v>285</v>
       </c>
       <c r="F125" s="0" t="n">
-        <v>5141</v>
+        <v>8398</v>
       </c>
       <c r="G125" s="0" t="n">
-        <v>806</v>
+        <v>507</v>
       </c>
       <c r="H125" s="0" t="n">
-        <v>17.02</v>
+        <v>27.18</v>
       </c>
       <c r="I125" s="0" t="n">
-        <v>113</v>
+        <v>169</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="126">
@@ -4498,22 +4498,22 @@
         <v>46</v>
       </c>
       <c r="D126" s="0" t="n">
-        <v>302</v>
+        <v>306</v>
       </c>
       <c r="E126" s="0" t="n">
-        <v>256</v>
+        <v>283</v>
       </c>
       <c r="F126" s="0" t="n">
-        <v>6397</v>
+        <v>6729</v>
       </c>
       <c r="G126" s="0" t="n">
-        <v>712</v>
+        <v>1011</v>
       </c>
       <c r="H126" s="0" t="n">
-        <v>21.18</v>
+        <v>21.99</v>
       </c>
       <c r="I126" s="0" t="n">
-        <v>107</v>
+        <v>126</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="127">
@@ -4527,22 +4527,22 @@
         <v>22</v>
       </c>
       <c r="D127" s="0" t="n">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="E127" s="0" t="n">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="F127" s="0" t="n">
-        <v>13020</v>
+        <v>16054</v>
       </c>
       <c r="G127" s="0" t="n">
-        <v>630</v>
+        <v>717</v>
       </c>
       <c r="H127" s="0" t="n">
-        <v>43.99</v>
+        <v>54.05</v>
       </c>
       <c r="I127" s="0" t="n">
-        <v>109</v>
+        <v>127</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="128">
@@ -4556,22 +4556,22 @@
         <v>46</v>
       </c>
       <c r="D128" s="0" t="n">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="E128" s="0" t="n">
         <v>243</v>
       </c>
       <c r="F128" s="0" t="n">
-        <v>5888</v>
+        <v>7423</v>
       </c>
       <c r="G128" s="0" t="n">
-        <v>711</v>
+        <v>831</v>
       </c>
       <c r="H128" s="0" t="n">
-        <v>21.18</v>
+        <v>26.61</v>
       </c>
       <c r="I128" s="0" t="n">
-        <v>130</v>
+        <v>141</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="129">
@@ -4585,22 +4585,22 @@
         <v>46</v>
       </c>
       <c r="D129" s="0" t="n">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="E129" s="0" t="n">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="F129" s="0" t="n">
-        <v>5386</v>
+        <v>6131</v>
       </c>
       <c r="G129" s="0" t="n">
-        <v>339</v>
+        <v>426</v>
       </c>
       <c r="H129" s="0" t="n">
-        <v>19.44</v>
+        <v>22.21</v>
       </c>
       <c r="I129" s="0" t="n">
-        <v>119</v>
+        <v>128</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="130">
@@ -4614,22 +4614,22 @@
         <v>46</v>
       </c>
       <c r="D130" s="0" t="n">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="E130" s="0" t="n">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="F130" s="0" t="n">
-        <v>4140</v>
+        <v>5416</v>
       </c>
       <c r="G130" s="0" t="n">
-        <v>293</v>
+        <v>348</v>
       </c>
       <c r="H130" s="0" t="n">
-        <v>16.56</v>
+        <v>21.58</v>
       </c>
       <c r="I130" s="0" t="n">
-        <v>104</v>
+        <v>133</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="131">
@@ -4643,22 +4643,22 @@
         <v>46</v>
       </c>
       <c r="D131" s="0" t="n">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="E131" s="0" t="n">
         <v>205</v>
       </c>
       <c r="F131" s="0" t="n">
-        <v>5416</v>
+        <v>7110</v>
       </c>
       <c r="G131" s="0" t="n">
-        <v>387</v>
+        <v>465</v>
       </c>
       <c r="H131" s="0" t="n">
-        <v>24.29</v>
+        <v>32.03</v>
       </c>
       <c r="I131" s="0" t="n">
-        <v>124</v>
+        <v>138</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="132">
@@ -4669,25 +4669,25 @@
         <v>148</v>
       </c>
       <c r="C132" s="0" t="s">
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="D132" s="0" t="n">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="E132" s="0" t="n">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="F132" s="0" t="n">
-        <v>5632</v>
+        <v>8466</v>
       </c>
       <c r="G132" s="0" t="n">
-        <v>476</v>
+        <v>420</v>
       </c>
       <c r="H132" s="0" t="n">
-        <v>25.83</v>
+        <v>38.31</v>
       </c>
       <c r="I132" s="0" t="n">
-        <v>107</v>
+        <v>123</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="133">
@@ -4698,25 +4698,25 @@
         <v>149</v>
       </c>
       <c r="C133" s="0" t="s">
-        <v>26</v>
+        <v>12</v>
       </c>
       <c r="D133" s="0" t="n">
-        <v>214</v>
+        <v>219</v>
       </c>
       <c r="E133" s="0" t="n">
-        <v>194</v>
+        <v>198</v>
       </c>
       <c r="F133" s="0" t="n">
-        <v>6670</v>
+        <v>7047</v>
       </c>
       <c r="G133" s="0" t="n">
-        <v>348</v>
+        <v>559</v>
       </c>
       <c r="H133" s="0" t="n">
-        <v>31.17</v>
+        <v>32.18</v>
       </c>
       <c r="I133" s="0" t="n">
-        <v>110</v>
+        <v>117</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="134">
@@ -4733,19 +4733,19 @@
         <v>198</v>
       </c>
       <c r="E134" s="0" t="n">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="F134" s="0" t="n">
-        <v>5973</v>
+        <v>7566</v>
       </c>
       <c r="G134" s="0" t="n">
-        <v>428</v>
+        <v>521</v>
       </c>
       <c r="H134" s="0" t="n">
-        <v>30.17</v>
+        <v>38.21</v>
       </c>
       <c r="I134" s="0" t="n">
-        <v>120</v>
+        <v>129</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="135">
@@ -4759,22 +4759,22 @@
         <v>22</v>
       </c>
       <c r="D135" s="0" t="n">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="E135" s="0" t="n">
         <v>179</v>
       </c>
       <c r="F135" s="0" t="n">
-        <v>7159</v>
+        <v>8146</v>
       </c>
       <c r="G135" s="0" t="n">
-        <v>499</v>
+        <v>551</v>
       </c>
       <c r="H135" s="0" t="n">
-        <v>36.71</v>
+        <v>42.65</v>
       </c>
       <c r="I135" s="0" t="n">
-        <v>123</v>
+        <v>126</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="136">
@@ -4788,22 +4788,22 @@
         <v>22</v>
       </c>
       <c r="D136" s="0" t="n">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="E136" s="0" t="n">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="F136" s="0" t="n">
-        <v>4444</v>
+        <v>4496</v>
       </c>
       <c r="G136" s="0" t="n">
-        <v>409</v>
+        <v>460</v>
       </c>
       <c r="H136" s="0" t="n">
-        <v>24.69</v>
+        <v>25.26</v>
       </c>
       <c r="I136" s="0" t="n">
-        <v>112</v>
+        <v>124</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="137">
@@ -4823,16 +4823,16 @@
         <v>150</v>
       </c>
       <c r="F137" s="0" t="n">
-        <v>2269</v>
+        <v>2906</v>
       </c>
       <c r="G137" s="0" t="n">
-        <v>166</v>
+        <v>200</v>
       </c>
       <c r="H137" s="0" t="n">
-        <v>13.35</v>
+        <v>17.09</v>
       </c>
       <c r="I137" s="0" t="n">
-        <v>103</v>
+        <v>115</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="138">
@@ -4846,22 +4846,22 @@
         <v>46</v>
       </c>
       <c r="D138" s="0" t="n">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="E138" s="0" t="n">
         <v>160</v>
       </c>
       <c r="F138" s="0" t="n">
-        <v>1432</v>
+        <v>1798</v>
       </c>
       <c r="G138" s="0" t="n">
-        <v>137</v>
+        <v>158</v>
       </c>
       <c r="H138" s="0" t="n">
-        <v>8.63</v>
+        <v>10.77</v>
       </c>
       <c r="I138" s="0" t="n">
-        <v>63</v>
+        <v>72</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="139">
@@ -4881,16 +4881,16 @@
         <v>154</v>
       </c>
       <c r="F139" s="0" t="n">
-        <v>5322</v>
+        <v>6687</v>
       </c>
       <c r="G139" s="0" t="n">
-        <v>420</v>
+        <v>469</v>
       </c>
       <c r="H139" s="0" t="n">
-        <v>32.45</v>
+        <v>40.77</v>
       </c>
       <c r="I139" s="0" t="n">
-        <v>145</v>
+        <v>158</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="140">
@@ -4901,25 +4901,25 @@
         <v>156</v>
       </c>
       <c r="C140" s="0" t="s">
-        <v>26</v>
+        <v>12</v>
       </c>
       <c r="D140" s="0" t="n">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="E140" s="0" t="n">
         <v>133</v>
       </c>
       <c r="F140" s="0" t="n">
-        <v>2781</v>
+        <v>4696</v>
       </c>
       <c r="G140" s="0" t="n">
-        <v>124</v>
+        <v>432</v>
       </c>
       <c r="H140" s="0" t="n">
-        <v>17.6</v>
+        <v>30.1</v>
       </c>
       <c r="I140" s="0" t="n">
-        <v>63</v>
+        <v>104</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="141">
@@ -4930,25 +4930,25 @@
         <v>157</v>
       </c>
       <c r="C141" s="0" t="s">
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="D141" s="0" t="n">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="E141" s="0" t="n">
         <v>133</v>
       </c>
       <c r="F141" s="0" t="n">
-        <v>3700</v>
+        <v>3695</v>
       </c>
       <c r="G141" s="0" t="n">
-        <v>370</v>
+        <v>146</v>
       </c>
       <c r="H141" s="0" t="n">
-        <v>23.72</v>
+        <v>24.15</v>
       </c>
       <c r="I141" s="0" t="n">
-        <v>95</v>
+        <v>78</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="142">
@@ -4962,22 +4962,22 @@
         <v>12</v>
       </c>
       <c r="D142" s="0" t="n">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="E142" s="0" t="n">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="F142" s="0" t="n">
-        <v>5820</v>
+        <v>6906</v>
       </c>
       <c r="G142" s="0" t="n">
-        <v>200</v>
+        <v>237</v>
       </c>
       <c r="H142" s="0" t="n">
-        <v>38.8</v>
+        <v>45.74</v>
       </c>
       <c r="I142" s="0" t="n">
-        <v>103</v>
+        <v>105</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="143">
@@ -4994,19 +4994,19 @@
         <v>142</v>
       </c>
       <c r="E143" s="0" t="n">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="F143" s="0" t="n">
-        <v>2591</v>
+        <v>3311</v>
       </c>
       <c r="G143" s="0" t="n">
-        <v>234</v>
+        <v>259</v>
       </c>
       <c r="H143" s="0" t="n">
-        <v>18.25</v>
+        <v>23.32</v>
       </c>
       <c r="I143" s="0" t="n">
-        <v>96</v>
+        <v>107</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="144">
@@ -5026,16 +5026,16 @@
         <v>112</v>
       </c>
       <c r="F144" s="0" t="n">
-        <v>12237</v>
+        <v>14982</v>
       </c>
       <c r="G144" s="0" t="n">
-        <v>134</v>
+        <v>163</v>
       </c>
       <c r="H144" s="0" t="n">
-        <v>86.79</v>
+        <v>106.26</v>
       </c>
       <c r="I144" s="0" t="n">
-        <v>102</v>
+        <v>112</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="145">
@@ -5055,16 +5055,16 @@
         <v>128</v>
       </c>
       <c r="F145" s="0" t="n">
-        <v>3018</v>
+        <v>3930</v>
       </c>
       <c r="G145" s="0" t="n">
-        <v>264</v>
+        <v>292</v>
       </c>
       <c r="H145" s="0" t="n">
-        <v>21.56</v>
+        <v>28.07</v>
       </c>
       <c r="I145" s="0" t="n">
-        <v>103</v>
+        <v>120</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="146">
@@ -5078,22 +5078,22 @@
         <v>26</v>
       </c>
       <c r="D146" s="0" t="n">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E146" s="0" t="n">
         <v>119</v>
       </c>
       <c r="F146" s="0" t="n">
-        <v>2082</v>
+        <v>2660</v>
       </c>
       <c r="G146" s="0" t="n">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="H146" s="0" t="n">
-        <v>15.77</v>
+        <v>20.31</v>
       </c>
       <c r="I146" s="0" t="n">
-        <v>79</v>
+        <v>86</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="147">
@@ -5104,25 +5104,25 @@
         <v>163</v>
       </c>
       <c r="C147" s="0" t="s">
-        <v>14</v>
+        <v>26</v>
       </c>
       <c r="D147" s="0" t="n">
         <v>121</v>
       </c>
       <c r="E147" s="0" t="n">
-        <v>104</v>
+        <v>46</v>
       </c>
       <c r="F147" s="0" t="n">
-        <v>2392</v>
+        <v>1217</v>
       </c>
       <c r="G147" s="0" t="n">
-        <v>235</v>
+        <v>48</v>
       </c>
       <c r="H147" s="0" t="n">
-        <v>19.77</v>
+        <v>10.06</v>
       </c>
       <c r="I147" s="0" t="n">
-        <v>126</v>
+        <v>55</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="148">
@@ -5133,25 +5133,25 @@
         <v>164</v>
       </c>
       <c r="C148" s="0" t="s">
-        <v>26</v>
+        <v>14</v>
       </c>
       <c r="D148" s="0" t="n">
         <v>120</v>
       </c>
       <c r="E148" s="0" t="n">
-        <v>46</v>
+        <v>104</v>
       </c>
       <c r="F148" s="0" t="n">
-        <v>964</v>
+        <v>3020</v>
       </c>
       <c r="G148" s="0" t="n">
-        <v>45</v>
+        <v>255</v>
       </c>
       <c r="H148" s="0" t="n">
-        <v>8.03</v>
+        <v>25.17</v>
       </c>
       <c r="I148" s="0" t="n">
-        <v>46</v>
+        <v>145</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="149">
@@ -5165,22 +5165,22 @@
         <v>26</v>
       </c>
       <c r="D149" s="0" t="n">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="E149" s="0" t="n">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="F149" s="0" t="n">
-        <v>1878</v>
+        <v>2030</v>
       </c>
       <c r="G149" s="0" t="n">
-        <v>128</v>
+        <v>160</v>
       </c>
       <c r="H149" s="0" t="n">
-        <v>15.65</v>
+        <v>17.06</v>
       </c>
       <c r="I149" s="0" t="n">
-        <v>81</v>
+        <v>85</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="150">
@@ -5194,22 +5194,22 @@
         <v>26</v>
       </c>
       <c r="D150" s="0" t="n">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="E150" s="0" t="n">
-        <v>99</v>
+        <v>104</v>
       </c>
       <c r="F150" s="0" t="n">
-        <v>1629</v>
+        <v>2430</v>
       </c>
       <c r="G150" s="0" t="n">
-        <v>140</v>
+        <v>155</v>
       </c>
       <c r="H150" s="0" t="n">
-        <v>13.69</v>
+        <v>20.77</v>
       </c>
       <c r="I150" s="0" t="n">
-        <v>77</v>
+        <v>93</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="151">
@@ -5220,25 +5220,25 @@
         <v>167</v>
       </c>
       <c r="C151" s="0" t="s">
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="D151" s="0" t="n">
         <v>117</v>
       </c>
       <c r="E151" s="0" t="n">
-        <v>95</v>
+        <v>103</v>
       </c>
       <c r="F151" s="0" t="n">
-        <v>10817</v>
+        <v>2887</v>
       </c>
       <c r="G151" s="0" t="n">
-        <v>173</v>
+        <v>228</v>
       </c>
       <c r="H151" s="0" t="n">
-        <v>92.45</v>
+        <v>24.68</v>
       </c>
       <c r="I151" s="0" t="n">
-        <v>69</v>
+        <v>86</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="152">
@@ -5249,25 +5249,25 @@
         <v>168</v>
       </c>
       <c r="C152" s="0" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D152" s="0" t="n">
         <v>113</v>
       </c>
       <c r="E152" s="0" t="n">
-        <v>105</v>
+        <v>95</v>
       </c>
       <c r="F152" s="0" t="n">
-        <v>3115</v>
+        <v>12598</v>
       </c>
       <c r="G152" s="0" t="n">
-        <v>355</v>
+        <v>179</v>
       </c>
       <c r="H152" s="0" t="n">
-        <v>27.57</v>
+        <v>111.49</v>
       </c>
       <c r="I152" s="0" t="n">
-        <v>87</v>
+        <v>72</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="153">
@@ -5278,25 +5278,25 @@
         <v>169</v>
       </c>
       <c r="C153" s="0" t="s">
-        <v>26</v>
+        <v>14</v>
       </c>
       <c r="D153" s="0" t="n">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="E153" s="0" t="n">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="F153" s="0" t="n">
-        <v>2437</v>
+        <v>3905</v>
       </c>
       <c r="G153" s="0" t="n">
-        <v>194</v>
+        <v>400</v>
       </c>
       <c r="H153" s="0" t="n">
-        <v>22.36</v>
+        <v>35.5</v>
       </c>
       <c r="I153" s="0" t="n">
-        <v>76</v>
+        <v>100</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="154">
@@ -5310,22 +5310,22 @@
         <v>22</v>
       </c>
       <c r="D154" s="0" t="n">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E154" s="0" t="n">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="F154" s="0" t="n">
-        <v>5366</v>
+        <v>6424</v>
       </c>
       <c r="G154" s="0" t="n">
-        <v>349</v>
+        <v>383</v>
       </c>
       <c r="H154" s="0" t="n">
-        <v>49.69</v>
+        <v>60.04</v>
       </c>
       <c r="I154" s="0" t="n">
-        <v>99</v>
+        <v>111</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="155">
@@ -5336,7 +5336,7 @@
         <v>171</v>
       </c>
       <c r="C155" s="0" t="s">
-        <v>26</v>
+        <v>46</v>
       </c>
       <c r="D155" s="0" t="n">
         <v>104</v>
@@ -5345,16 +5345,16 @@
         <v>98</v>
       </c>
       <c r="F155" s="0" t="n">
-        <v>1909</v>
+        <v>1240</v>
       </c>
       <c r="G155" s="0" t="n">
-        <v>156</v>
+        <v>173</v>
       </c>
       <c r="H155" s="0" t="n">
-        <v>18.36</v>
+        <v>11.92</v>
       </c>
       <c r="I155" s="0" t="n">
-        <v>100</v>
+        <v>64</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="156">
@@ -5365,25 +5365,25 @@
         <v>172</v>
       </c>
       <c r="C156" s="0" t="s">
-        <v>46</v>
+        <v>26</v>
       </c>
       <c r="D156" s="0" t="n">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="E156" s="0" t="n">
         <v>98</v>
       </c>
       <c r="F156" s="0" t="n">
-        <v>997</v>
+        <v>2415</v>
       </c>
       <c r="G156" s="0" t="n">
-        <v>143</v>
+        <v>180</v>
       </c>
       <c r="H156" s="0" t="n">
-        <v>9.59</v>
+        <v>23.45</v>
       </c>
       <c r="I156" s="0" t="n">
-        <v>56</v>
+        <v>109</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="157">
@@ -5394,25 +5394,25 @@
         <v>173</v>
       </c>
       <c r="C157" s="0" t="s">
-        <v>46</v>
+        <v>12</v>
       </c>
       <c r="D157" s="0" t="n">
         <v>102</v>
       </c>
       <c r="E157" s="0" t="n">
-        <v>91</v>
+        <v>100</v>
       </c>
       <c r="F157" s="0" t="n">
-        <v>1504</v>
+        <v>1548</v>
       </c>
       <c r="G157" s="0" t="n">
-        <v>39</v>
+        <v>114</v>
       </c>
       <c r="H157" s="0" t="n">
-        <v>14.75</v>
+        <v>15.18</v>
       </c>
       <c r="I157" s="0" t="n">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="158">
@@ -5423,25 +5423,25 @@
         <v>174</v>
       </c>
       <c r="C158" s="0" t="s">
-        <v>12</v>
+        <v>46</v>
       </c>
       <c r="D158" s="0" t="n">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="E158" s="0" t="n">
-        <v>99</v>
+        <v>91</v>
       </c>
       <c r="F158" s="0" t="n">
-        <v>1226</v>
+        <v>1858</v>
       </c>
       <c r="G158" s="0" t="n">
-        <v>97</v>
+        <v>47</v>
       </c>
       <c r="H158" s="0" t="n">
-        <v>12.14</v>
+        <v>18.22</v>
       </c>
       <c r="I158" s="0" t="n">
-        <v>58</v>
+        <v>89</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="159">
@@ -5455,22 +5455,22 @@
         <v>12</v>
       </c>
       <c r="D159" s="0" t="n">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E159" s="0" t="n">
         <v>74</v>
       </c>
       <c r="F159" s="0" t="n">
-        <v>903</v>
+        <v>1184</v>
       </c>
       <c r="G159" s="0" t="n">
-        <v>124</v>
+        <v>148</v>
       </c>
       <c r="H159" s="0" t="n">
-        <v>9.71</v>
+        <v>12.87</v>
       </c>
       <c r="I159" s="0" t="n">
-        <v>61</v>
+        <v>68</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="160">
@@ -5490,16 +5490,16 @@
         <v>68</v>
       </c>
       <c r="F160" s="0" t="n">
-        <v>4699</v>
+        <v>4775</v>
       </c>
       <c r="G160" s="0" t="n">
-        <v>413</v>
+        <v>444</v>
       </c>
       <c r="H160" s="0" t="n">
-        <v>54.64</v>
+        <v>55.52</v>
       </c>
       <c r="I160" s="0" t="n">
-        <v>73</v>
+        <v>90</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="161">
@@ -5513,22 +5513,22 @@
         <v>26</v>
       </c>
       <c r="D161" s="0" t="n">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="E161" s="0" t="n">
         <v>78</v>
       </c>
       <c r="F161" s="0" t="n">
-        <v>1143</v>
+        <v>1471</v>
       </c>
       <c r="G161" s="0" t="n">
-        <v>72</v>
+        <v>89</v>
       </c>
       <c r="H161" s="0" t="n">
-        <v>13.77</v>
+        <v>17.31</v>
       </c>
       <c r="I161" s="0" t="n">
-        <v>76</v>
+        <v>89</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="162">
@@ -5542,22 +5542,22 @@
         <v>26</v>
       </c>
       <c r="D162" s="0" t="n">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="E162" s="0" t="n">
         <v>70</v>
       </c>
       <c r="F162" s="0" t="n">
-        <v>2110</v>
+        <v>2600</v>
       </c>
       <c r="G162" s="0" t="n">
-        <v>135</v>
+        <v>153</v>
       </c>
       <c r="H162" s="0" t="n">
-        <v>27.4</v>
+        <v>35.62</v>
       </c>
       <c r="I162" s="0" t="n">
-        <v>92</v>
+        <v>104</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="163">
@@ -5571,22 +5571,22 @@
         <v>46</v>
       </c>
       <c r="D163" s="0" t="n">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E163" s="0" t="n">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="F163" s="0" t="n">
-        <v>4233</v>
+        <v>4885</v>
       </c>
       <c r="G163" s="0" t="n">
-        <v>217</v>
+        <v>233</v>
       </c>
       <c r="H163" s="0" t="n">
-        <v>62.25</v>
+        <v>72.91</v>
       </c>
       <c r="I163" s="0" t="n">
-        <v>78</v>
+        <v>88</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="164">
@@ -5606,16 +5606,16 @@
         <v>57</v>
       </c>
       <c r="F164" s="0" t="n">
-        <v>1472</v>
+        <v>1762</v>
       </c>
       <c r="G164" s="0" t="n">
-        <v>358</v>
+        <v>397</v>
       </c>
       <c r="H164" s="0" t="n">
-        <v>24.95</v>
+        <v>29.86</v>
       </c>
       <c r="I164" s="0" t="n">
-        <v>68</v>
+        <v>75</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="165">
@@ -5635,16 +5635,16 @@
         <v>51</v>
       </c>
       <c r="F165" s="0" t="n">
-        <v>1203</v>
+        <v>1541</v>
       </c>
       <c r="G165" s="0" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H165" s="0" t="n">
-        <v>20.39</v>
+        <v>26.12</v>
       </c>
       <c r="I165" s="0" t="n">
-        <v>59</v>
+        <v>64</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="166">
@@ -5658,22 +5658,22 @@
         <v>14</v>
       </c>
       <c r="D166" s="0" t="n">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="E166" s="0" t="n">
         <v>54</v>
       </c>
       <c r="F166" s="0" t="n">
-        <v>1651</v>
+        <v>2031</v>
       </c>
       <c r="G166" s="0" t="n">
-        <v>142</v>
+        <v>162</v>
       </c>
       <c r="H166" s="0" t="n">
-        <v>28.47</v>
+        <v>36.27</v>
       </c>
       <c r="I166" s="0" t="n">
-        <v>72</v>
+        <v>85</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="167">
@@ -5684,25 +5684,25 @@
         <v>183</v>
       </c>
       <c r="C167" s="0" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="D167" s="0" t="n">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E167" s="0" t="n">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="F167" s="0" t="n">
-        <v>925</v>
+        <v>1351</v>
       </c>
       <c r="G167" s="0" t="n">
-        <v>28</v>
+        <v>84</v>
       </c>
       <c r="H167" s="0" t="n">
-        <v>16.82</v>
+        <v>25.02</v>
       </c>
       <c r="I167" s="0" t="n">
-        <v>75</v>
+        <v>71</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="168">
@@ -5713,25 +5713,25 @@
         <v>184</v>
       </c>
       <c r="C168" s="0" t="s">
-        <v>46</v>
+        <v>22</v>
       </c>
       <c r="D168" s="0" t="n">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="E168" s="0" t="n">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F168" s="0" t="n">
-        <v>1237</v>
+        <v>767</v>
       </c>
       <c r="G168" s="0" t="n">
-        <v>12</v>
+        <v>37</v>
       </c>
       <c r="H168" s="0" t="n">
-        <v>23.34</v>
+        <v>14.2</v>
       </c>
       <c r="I168" s="0" t="n">
-        <v>62</v>
+        <v>82</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="169">
@@ -5742,25 +5742,25 @@
         <v>185</v>
       </c>
       <c r="C169" s="0" t="s">
-        <v>26</v>
+        <v>46</v>
       </c>
       <c r="D169" s="0" t="n">
         <v>53</v>
       </c>
       <c r="E169" s="0" t="n">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="F169" s="0" t="n">
-        <v>1042</v>
+        <v>1589</v>
       </c>
       <c r="G169" s="0" t="n">
-        <v>76</v>
+        <v>14</v>
       </c>
       <c r="H169" s="0" t="n">
-        <v>19.66</v>
+        <v>29.98</v>
       </c>
       <c r="I169" s="0" t="n">
-        <v>61</v>
+        <v>67</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="170">
@@ -5774,22 +5774,22 @@
         <v>46</v>
       </c>
       <c r="D170" s="0" t="n">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="E170" s="0" t="n">
         <v>46</v>
       </c>
       <c r="F170" s="0" t="n">
-        <v>1006</v>
+        <v>1184</v>
       </c>
       <c r="G170" s="0" t="n">
-        <v>96</v>
+        <v>81</v>
       </c>
       <c r="H170" s="0" t="n">
-        <v>19.35</v>
+        <v>23.68</v>
       </c>
       <c r="I170" s="0" t="n">
-        <v>60</v>
+        <v>70</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="171">
@@ -5809,16 +5809,16 @@
         <v>42</v>
       </c>
       <c r="F171" s="0" t="n">
-        <v>1013</v>
+        <v>1343</v>
       </c>
       <c r="G171" s="0" t="n">
-        <v>51</v>
+        <v>58</v>
       </c>
       <c r="H171" s="0" t="n">
-        <v>20.67</v>
+        <v>27.41</v>
       </c>
       <c r="I171" s="0" t="n">
-        <v>55</v>
+        <v>64</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="172">
@@ -5838,16 +5838,16 @@
         <v>40</v>
       </c>
       <c r="F172" s="0" t="n">
-        <v>703</v>
+        <v>927</v>
       </c>
       <c r="G172" s="0" t="n">
-        <v>53</v>
+        <v>77</v>
       </c>
       <c r="H172" s="0" t="n">
-        <v>14.65</v>
+        <v>19.31</v>
       </c>
       <c r="I172" s="0" t="n">
-        <v>50</v>
+        <v>58</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="173">
@@ -5867,16 +5867,16 @@
         <v>45</v>
       </c>
       <c r="F173" s="0" t="n">
-        <v>364</v>
+        <v>453</v>
       </c>
       <c r="G173" s="0" t="n">
-        <v>96</v>
+        <v>105</v>
       </c>
       <c r="H173" s="0" t="n">
-        <v>7.91</v>
+        <v>9.85</v>
       </c>
       <c r="I173" s="0" t="n">
-        <v>32</v>
+        <v>37</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="174">
@@ -5896,16 +5896,16 @@
         <v>42</v>
       </c>
       <c r="F174" s="0" t="n">
-        <v>1950</v>
+        <v>2385</v>
       </c>
       <c r="G174" s="0" t="n">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="H174" s="0" t="n">
-        <v>44.32</v>
+        <v>54.2</v>
       </c>
       <c r="I174" s="0" t="n">
-        <v>74</v>
+        <v>81</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="175">
@@ -5916,25 +5916,25 @@
         <v>191</v>
       </c>
       <c r="C175" s="0" t="s">
-        <v>12</v>
+        <v>46</v>
       </c>
       <c r="D175" s="0" t="n">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E175" s="0" t="n">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="F175" s="0" t="n">
-        <v>361</v>
+        <v>603</v>
       </c>
       <c r="G175" s="0" t="n">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="H175" s="0" t="n">
-        <v>8.6</v>
+        <v>14.71</v>
       </c>
       <c r="I175" s="0" t="n">
-        <v>43</v>
+        <v>55</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="176">
@@ -5945,25 +5945,25 @@
         <v>192</v>
       </c>
       <c r="C176" s="0" t="s">
-        <v>46</v>
+        <v>12</v>
       </c>
       <c r="D176" s="0" t="n">
+        <v>41</v>
+      </c>
+      <c r="E176" s="0" t="n">
         <v>39</v>
       </c>
-      <c r="E176" s="0" t="n">
-        <v>34</v>
-      </c>
       <c r="F176" s="0" t="n">
-        <v>507</v>
+        <v>431</v>
       </c>
       <c r="G176" s="0" t="n">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="H176" s="0" t="n">
-        <v>13</v>
+        <v>10.51</v>
       </c>
       <c r="I176" s="0" t="n">
-        <v>46</v>
+        <v>54</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="177">
@@ -5977,22 +5977,22 @@
         <v>46</v>
       </c>
       <c r="D177" s="0" t="n">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E177" s="0" t="n">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F177" s="0" t="n">
-        <v>347</v>
+        <v>440</v>
       </c>
       <c r="G177" s="0" t="n">
-        <v>38</v>
+        <v>51</v>
       </c>
       <c r="H177" s="0" t="n">
-        <v>8.9</v>
+        <v>11</v>
       </c>
       <c r="I177" s="0" t="n">
-        <v>78</v>
+        <v>92</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="178">
@@ -6012,16 +6012,16 @@
         <v>32</v>
       </c>
       <c r="F178" s="0" t="n">
-        <v>2353</v>
+        <v>2764</v>
       </c>
       <c r="G178" s="0" t="n">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="H178" s="0" t="n">
-        <v>60.33</v>
+        <v>70.87</v>
       </c>
       <c r="I178" s="0" t="n">
-        <v>63</v>
+        <v>68</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="179">
@@ -6041,16 +6041,16 @@
         <v>30</v>
       </c>
       <c r="F179" s="0" t="n">
-        <v>1463</v>
+        <v>1849</v>
       </c>
       <c r="G179" s="0" t="n">
-        <v>81</v>
+        <v>91</v>
       </c>
       <c r="H179" s="0" t="n">
-        <v>37.51</v>
+        <v>47.41</v>
       </c>
       <c r="I179" s="0" t="n">
-        <v>105</v>
+        <v>113</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="180">
@@ -6070,16 +6070,16 @@
         <v>35</v>
       </c>
       <c r="F180" s="0" t="n">
-        <v>672</v>
+        <v>848</v>
       </c>
       <c r="G180" s="0" t="n">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="H180" s="0" t="n">
-        <v>18.67</v>
+        <v>23.56</v>
       </c>
       <c r="I180" s="0" t="n">
-        <v>38</v>
+        <v>48</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="181">
@@ -6090,25 +6090,25 @@
         <v>197</v>
       </c>
       <c r="C181" s="0" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="D181" s="0" t="n">
         <v>35</v>
       </c>
       <c r="E181" s="0" t="n">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="F181" s="0" t="n">
-        <v>512</v>
+        <v>2824</v>
       </c>
       <c r="G181" s="0" t="n">
-        <v>48</v>
+        <v>19</v>
       </c>
       <c r="H181" s="0" t="n">
-        <v>14.63</v>
+        <v>80.69</v>
       </c>
       <c r="I181" s="0" t="n">
-        <v>42</v>
+        <v>65</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="182">
@@ -6122,22 +6122,22 @@
         <v>22</v>
       </c>
       <c r="D182" s="0" t="n">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="E182" s="0" t="n">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="F182" s="0" t="n">
-        <v>470</v>
+        <v>689</v>
       </c>
       <c r="G182" s="0" t="n">
-        <v>26</v>
+        <v>74</v>
       </c>
       <c r="H182" s="0" t="n">
-        <v>14.24</v>
+        <v>19.69</v>
       </c>
       <c r="I182" s="0" t="n">
-        <v>45</v>
+        <v>48</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="183">
@@ -6148,7 +6148,7 @@
         <v>199</v>
       </c>
       <c r="C183" s="0" t="s">
-        <v>26</v>
+        <v>46</v>
       </c>
       <c r="D183" s="0" t="n">
         <v>33</v>
@@ -6157,16 +6157,16 @@
         <v>30</v>
       </c>
       <c r="F183" s="0" t="n">
-        <v>782</v>
+        <v>894</v>
       </c>
       <c r="G183" s="0" t="n">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="H183" s="0" t="n">
-        <v>23.7</v>
+        <v>27.09</v>
       </c>
       <c r="I183" s="0" t="n">
-        <v>56</v>
+        <v>60</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="184">
@@ -6177,25 +6177,25 @@
         <v>200</v>
       </c>
       <c r="C184" s="0" t="s">
-        <v>46</v>
+        <v>22</v>
       </c>
       <c r="D184" s="0" t="n">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="E184" s="0" t="n">
         <v>31</v>
       </c>
       <c r="F184" s="0" t="n">
-        <v>671</v>
+        <v>615</v>
       </c>
       <c r="G184" s="0" t="n">
-        <v>51</v>
+        <v>31</v>
       </c>
       <c r="H184" s="0" t="n">
-        <v>20.97</v>
+        <v>18.64</v>
       </c>
       <c r="I184" s="0" t="n">
-        <v>49</v>
+        <v>53</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="185">
@@ -6206,25 +6206,25 @@
         <v>201</v>
       </c>
       <c r="C185" s="0" t="s">
-        <v>46</v>
+        <v>26</v>
       </c>
       <c r="D185" s="0" t="n">
         <v>32</v>
       </c>
       <c r="E185" s="0" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F185" s="0" t="n">
-        <v>639</v>
+        <v>825</v>
       </c>
       <c r="G185" s="0" t="n">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="H185" s="0" t="n">
-        <v>19.97</v>
+        <v>25.78</v>
       </c>
       <c r="I185" s="0" t="n">
-        <v>53</v>
+        <v>66</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="186">
@@ -6235,25 +6235,25 @@
         <v>202</v>
       </c>
       <c r="C186" s="0" t="s">
-        <v>26</v>
+        <v>46</v>
       </c>
       <c r="D186" s="0" t="n">
         <v>31</v>
       </c>
       <c r="E186" s="0" t="n">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="F186" s="0" t="n">
-        <v>668</v>
+        <v>632</v>
       </c>
       <c r="G186" s="0" t="n">
-        <v>5</v>
+        <v>49</v>
       </c>
       <c r="H186" s="0" t="n">
-        <v>21.55</v>
+        <v>20.39</v>
       </c>
       <c r="I186" s="0" t="n">
-        <v>44</v>
+        <v>57</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="187">
@@ -6264,25 +6264,25 @@
         <v>203</v>
       </c>
       <c r="C187" s="0" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="D187" s="0" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E187" s="0" t="n">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="F187" s="0" t="n">
-        <v>671</v>
+        <v>857</v>
       </c>
       <c r="G187" s="0" t="n">
-        <v>66</v>
+        <v>6</v>
       </c>
       <c r="H187" s="0" t="n">
-        <v>23.14</v>
+        <v>28.57</v>
       </c>
       <c r="I187" s="0" t="n">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="188">
@@ -6302,16 +6302,16 @@
         <v>26</v>
       </c>
       <c r="F188" s="0" t="n">
-        <v>357</v>
+        <v>449</v>
       </c>
       <c r="G188" s="0" t="n">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="H188" s="0" t="n">
-        <v>12.75</v>
+        <v>16.04</v>
       </c>
       <c r="I188" s="0" t="n">
-        <v>30</v>
+        <v>36</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="189">
@@ -6322,25 +6322,25 @@
         <v>205</v>
       </c>
       <c r="C189" s="0" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="D189" s="0" t="n">
         <v>28</v>
       </c>
       <c r="E189" s="0" t="n">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="F189" s="0" t="n">
-        <v>2857</v>
+        <v>827</v>
       </c>
       <c r="G189" s="0" t="n">
-        <v>18</v>
+        <v>73</v>
       </c>
       <c r="H189" s="0" t="n">
-        <v>102.04</v>
+        <v>29.54</v>
       </c>
       <c r="I189" s="0" t="n">
-        <v>58</v>
+        <v>61</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="190">
@@ -6351,25 +6351,25 @@
         <v>206</v>
       </c>
       <c r="C190" s="0" t="s">
-        <v>46</v>
+        <v>26</v>
       </c>
       <c r="D190" s="0" t="n">
         <v>26</v>
       </c>
       <c r="E190" s="0" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="F190" s="0" t="n">
-        <v>306</v>
+        <v>389</v>
       </c>
       <c r="G190" s="0" t="n">
-        <v>17</v>
+        <v>5</v>
       </c>
       <c r="H190" s="0" t="n">
-        <v>11.77</v>
+        <v>14.96</v>
       </c>
       <c r="I190" s="0" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="191">
@@ -6380,25 +6380,25 @@
         <v>207</v>
       </c>
       <c r="C191" s="0" t="s">
+        <v>46</v>
+      </c>
+      <c r="D191" s="0" t="n">
         <v>26</v>
       </c>
-      <c r="D191" s="0" t="n">
-        <v>25</v>
-      </c>
       <c r="E191" s="0" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="F191" s="0" t="n">
-        <v>294</v>
+        <v>333</v>
       </c>
       <c r="G191" s="0" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H191" s="0" t="n">
-        <v>11.76</v>
+        <v>12.81</v>
       </c>
       <c r="I191" s="0" t="n">
-        <v>22</v>
+        <v>27</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="192">
@@ -6409,25 +6409,25 @@
         <v>208</v>
       </c>
       <c r="C192" s="0" t="s">
-        <v>12</v>
+        <v>46</v>
       </c>
       <c r="D192" s="0" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E192" s="0" t="n">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="F192" s="0" t="n">
-        <v>514</v>
+        <v>247</v>
       </c>
       <c r="G192" s="0" t="n">
-        <v>40</v>
+        <v>28</v>
       </c>
       <c r="H192" s="0" t="n">
-        <v>21.42</v>
+        <v>9.88</v>
       </c>
       <c r="I192" s="0" t="n">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="193">
@@ -6447,16 +6447,16 @@
         <v>24</v>
       </c>
       <c r="F193" s="0" t="n">
-        <v>473</v>
+        <v>646</v>
       </c>
       <c r="G193" s="0" t="n">
-        <v>27</v>
+        <v>36</v>
       </c>
       <c r="H193" s="0" t="n">
-        <v>19.71</v>
+        <v>26.92</v>
       </c>
       <c r="I193" s="0" t="n">
-        <v>31</v>
+        <v>39</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="194">
@@ -6467,25 +6467,25 @@
         <v>210</v>
       </c>
       <c r="C194" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="D194" s="0" t="n">
+        <v>24</v>
+      </c>
+      <c r="E194" s="0" t="n">
         <v>22</v>
       </c>
-      <c r="D194" s="0" t="n">
-        <v>23</v>
-      </c>
-      <c r="E194" s="0" t="n">
-        <v>21</v>
-      </c>
       <c r="F194" s="0" t="n">
-        <v>306</v>
+        <v>665</v>
       </c>
       <c r="G194" s="0" t="n">
-        <v>21</v>
+        <v>48</v>
       </c>
       <c r="H194" s="0" t="n">
-        <v>13.3</v>
+        <v>27.71</v>
       </c>
       <c r="I194" s="0" t="n">
-        <v>31</v>
+        <v>47</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="195">
@@ -6499,22 +6499,22 @@
         <v>26</v>
       </c>
       <c r="D195" s="0" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E195" s="0" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F195" s="0" t="n">
-        <v>274</v>
+        <v>346</v>
       </c>
       <c r="G195" s="0" t="n">
         <v>18</v>
       </c>
       <c r="H195" s="0" t="n">
-        <v>11.91</v>
+        <v>14.42</v>
       </c>
       <c r="I195" s="0" t="n">
-        <v>49</v>
+        <v>57</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="196">
@@ -6525,22 +6525,22 @@
         <v>212</v>
       </c>
       <c r="C196" s="0" t="s">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="D196" s="0" t="n">
+        <v>23</v>
+      </c>
+      <c r="E196" s="0" t="n">
         <v>21</v>
       </c>
-      <c r="E196" s="0" t="n">
-        <v>20</v>
-      </c>
       <c r="F196" s="0" t="n">
-        <v>758</v>
+        <v>371</v>
       </c>
       <c r="G196" s="0" t="n">
-        <v>12</v>
+        <v>27</v>
       </c>
       <c r="H196" s="0" t="n">
-        <v>36.1</v>
+        <v>16.13</v>
       </c>
       <c r="I196" s="0" t="n">
         <v>36</v>
@@ -6554,25 +6554,25 @@
         <v>213</v>
       </c>
       <c r="C197" s="0" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="D197" s="0" t="n">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="E197" s="0" t="n">
+        <v>20</v>
+      </c>
+      <c r="F197" s="0" t="n">
+        <v>1082</v>
+      </c>
+      <c r="G197" s="0" t="n">
         <v>14</v>
       </c>
-      <c r="F197" s="0" t="n">
-        <v>431</v>
-      </c>
-      <c r="G197" s="0" t="n">
-        <v>4</v>
-      </c>
       <c r="H197" s="0" t="n">
-        <v>23.94</v>
+        <v>51.52</v>
       </c>
       <c r="I197" s="0" t="n">
-        <v>57</v>
+        <v>42</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="198">
@@ -6583,25 +6583,25 @@
         <v>214</v>
       </c>
       <c r="C198" s="0" t="s">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="D198" s="0" t="n">
         <v>18</v>
       </c>
       <c r="E198" s="0" t="n">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="F198" s="0" t="n">
-        <v>520</v>
+        <v>495</v>
       </c>
       <c r="G198" s="0" t="n">
-        <v>35</v>
+        <v>4</v>
       </c>
       <c r="H198" s="0" t="n">
-        <v>28.89</v>
+        <v>27.5</v>
       </c>
       <c r="I198" s="0" t="n">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="199">
@@ -6612,25 +6612,25 @@
         <v>215</v>
       </c>
       <c r="C199" s="0" t="s">
-        <v>46</v>
+        <v>14</v>
       </c>
       <c r="D199" s="0" t="n">
         <v>17</v>
       </c>
       <c r="E199" s="0" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F199" s="0" t="n">
-        <v>189</v>
+        <v>555</v>
       </c>
       <c r="G199" s="0" t="n">
         <v>12</v>
       </c>
       <c r="H199" s="0" t="n">
-        <v>11.12</v>
+        <v>32.65</v>
       </c>
       <c r="I199" s="0" t="n">
-        <v>33</v>
+        <v>43</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="200">
@@ -6641,25 +6641,25 @@
         <v>216</v>
       </c>
       <c r="C200" s="0" t="s">
-        <v>46</v>
+        <v>26</v>
       </c>
       <c r="D200" s="0" t="n">
         <v>17</v>
       </c>
       <c r="E200" s="0" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="F200" s="0" t="n">
-        <v>172</v>
+        <v>607</v>
       </c>
       <c r="G200" s="0" t="n">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="H200" s="0" t="n">
-        <v>10.12</v>
+        <v>35.71</v>
       </c>
       <c r="I200" s="0" t="n">
-        <v>20</v>
+        <v>46</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="201">
@@ -6670,25 +6670,25 @@
         <v>217</v>
       </c>
       <c r="C201" s="0" t="s">
-        <v>26</v>
+        <v>46</v>
       </c>
       <c r="D201" s="0" t="n">
         <v>17</v>
       </c>
       <c r="E201" s="0" t="n">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="F201" s="0" t="n">
-        <v>470</v>
+        <v>241</v>
       </c>
       <c r="G201" s="0" t="n">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="H201" s="0" t="n">
-        <v>27.65</v>
+        <v>14.18</v>
       </c>
       <c r="I201" s="0" t="n">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="202">
@@ -6705,19 +6705,19 @@
         <v>17</v>
       </c>
       <c r="E202" s="0" t="n">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="F202" s="0" t="n">
-        <v>443</v>
+        <v>423</v>
       </c>
       <c r="G202" s="0" t="n">
-        <v>12</v>
+        <v>41</v>
       </c>
       <c r="H202" s="0" t="n">
-        <v>26.06</v>
+        <v>24.88</v>
       </c>
       <c r="I202" s="0" t="n">
-        <v>37</v>
+        <v>50</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="203">
@@ -6737,16 +6737,16 @@
         <v>14</v>
       </c>
       <c r="F203" s="0" t="n">
-        <v>315</v>
+        <v>436</v>
       </c>
       <c r="G203" s="0" t="n">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="H203" s="0" t="n">
-        <v>19.69</v>
+        <v>27.25</v>
       </c>
       <c r="I203" s="0" t="n">
-        <v>48</v>
+        <v>54</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="204">
@@ -6766,16 +6766,16 @@
         <v>14</v>
       </c>
       <c r="F204" s="0" t="n">
-        <v>208</v>
+        <v>264</v>
       </c>
       <c r="G204" s="0" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H204" s="0" t="n">
-        <v>13.87</v>
+        <v>17.6</v>
       </c>
       <c r="I204" s="0" t="n">
-        <v>39</v>
+        <v>48</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="205">
@@ -6789,22 +6789,22 @@
         <v>26</v>
       </c>
       <c r="D205" s="0" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E205" s="0" t="n">
         <v>11</v>
       </c>
       <c r="F205" s="0" t="n">
-        <v>891</v>
+        <v>306</v>
       </c>
       <c r="G205" s="0" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H205" s="0" t="n">
-        <v>59.4</v>
+        <v>21.86</v>
       </c>
       <c r="I205" s="0" t="n">
-        <v>60</v>
+        <v>64</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="206">
@@ -6824,16 +6824,16 @@
         <v>12</v>
       </c>
       <c r="F206" s="0" t="n">
-        <v>327</v>
+        <v>396</v>
       </c>
       <c r="G206" s="0" t="n">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="H206" s="0" t="n">
-        <v>25.15</v>
+        <v>30.46</v>
       </c>
       <c r="I206" s="0" t="n">
-        <v>44</v>
+        <v>48</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="207">
@@ -6847,22 +6847,22 @@
         <v>26</v>
       </c>
       <c r="D207" s="0" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="E207" s="0" t="n">
         <v>9</v>
       </c>
       <c r="F207" s="0" t="n">
-        <v>176</v>
+        <v>229</v>
       </c>
       <c r="G207" s="0" t="n">
         <v>1</v>
       </c>
       <c r="H207" s="0" t="n">
-        <v>16</v>
+        <v>17.62</v>
       </c>
       <c r="I207" s="0" t="n">
-        <v>25</v>
+        <v>30</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="208">
@@ -6873,25 +6873,25 @@
         <v>224</v>
       </c>
       <c r="C208" s="0" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="D208" s="0" t="n">
         <v>10</v>
       </c>
       <c r="E208" s="0" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F208" s="0" t="n">
         <v>191</v>
       </c>
       <c r="G208" s="0" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="H208" s="0" t="n">
         <v>19.1</v>
       </c>
       <c r="I208" s="0" t="n">
-        <v>33</v>
+        <v>21</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="209">
@@ -6908,19 +6908,19 @@
         <v>10</v>
       </c>
       <c r="E209" s="0" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="F209" s="0" t="n">
-        <v>153</v>
+        <v>278</v>
       </c>
       <c r="G209" s="0" t="n">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="H209" s="0" t="n">
-        <v>15.3</v>
+        <v>27.8</v>
       </c>
       <c r="I209" s="0" t="n">
-        <v>17</v>
+        <v>31</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="210">
@@ -6931,25 +6931,25 @@
         <v>226</v>
       </c>
       <c r="C210" s="0" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="D210" s="0" t="n">
         <v>10</v>
       </c>
       <c r="E210" s="0" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="F210" s="0" t="n">
-        <v>222</v>
+        <v>245</v>
       </c>
       <c r="G210" s="0" t="n">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="H210" s="0" t="n">
-        <v>22.2</v>
+        <v>24.5</v>
       </c>
       <c r="I210" s="0" t="n">
-        <v>28</v>
+        <v>38</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="211">
@@ -6969,16 +6969,16 @@
         <v>6</v>
       </c>
       <c r="F211" s="0" t="n">
-        <v>90</v>
+        <v>104</v>
       </c>
       <c r="G211" s="0" t="n">
         <v>2</v>
       </c>
       <c r="H211" s="0" t="n">
-        <v>10</v>
+        <v>11.56</v>
       </c>
       <c r="I211" s="0" t="n">
-        <v>27</v>
+        <v>30</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="212">
@@ -6989,25 +6989,25 @@
         <v>228</v>
       </c>
       <c r="C212" s="0" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="D212" s="0" t="n">
         <v>8</v>
       </c>
       <c r="E212" s="0" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F212" s="0" t="n">
-        <v>168</v>
+        <v>145</v>
       </c>
       <c r="G212" s="0" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="H212" s="0" t="n">
-        <v>21</v>
+        <v>18.13</v>
       </c>
       <c r="I212" s="0" t="n">
-        <v>34</v>
+        <v>40</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="213">
@@ -7018,25 +7018,25 @@
         <v>229</v>
       </c>
       <c r="C213" s="0" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="D213" s="0" t="n">
         <v>8</v>
       </c>
       <c r="E213" s="0" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F213" s="0" t="n">
-        <v>127</v>
+        <v>194</v>
       </c>
       <c r="G213" s="0" t="n">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="H213" s="0" t="n">
-        <v>15.88</v>
+        <v>24.25</v>
       </c>
       <c r="I213" s="0" t="n">
-        <v>34</v>
+        <v>26</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="214">
@@ -7056,16 +7056,16 @@
         <v>8</v>
       </c>
       <c r="F214" s="0" t="n">
-        <v>161</v>
+        <v>215</v>
       </c>
       <c r="G214" s="0" t="n">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="H214" s="0" t="n">
-        <v>20.13</v>
+        <v>26.88</v>
       </c>
       <c r="I214" s="0" t="n">
-        <v>34</v>
+        <v>39</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="215">
@@ -7076,25 +7076,25 @@
         <v>231</v>
       </c>
       <c r="C215" s="0" t="s">
-        <v>46</v>
+        <v>22</v>
       </c>
       <c r="D215" s="0" t="n">
         <v>7</v>
       </c>
       <c r="E215" s="0" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F215" s="0" t="n">
-        <v>43</v>
+        <v>247</v>
       </c>
       <c r="G215" s="0" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="H215" s="0" t="n">
-        <v>6.14</v>
+        <v>35.29</v>
       </c>
       <c r="I215" s="0" t="n">
-        <v>24</v>
+        <v>16</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="216">
@@ -7111,19 +7111,19 @@
         <v>7</v>
       </c>
       <c r="E216" s="0" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="F216" s="0" t="n">
-        <v>109</v>
+        <v>50</v>
       </c>
       <c r="G216" s="0" t="n">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="H216" s="0" t="n">
-        <v>15.57</v>
+        <v>7.14</v>
       </c>
       <c r="I216" s="0" t="n">
-        <v>14</v>
+        <v>27</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="217">
@@ -7134,25 +7134,25 @@
         <v>233</v>
       </c>
       <c r="C217" s="0" t="s">
-        <v>22</v>
+        <v>46</v>
       </c>
       <c r="D217" s="0" t="n">
         <v>7</v>
       </c>
       <c r="E217" s="0" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="F217" s="0" t="n">
-        <v>170</v>
+        <v>131</v>
       </c>
       <c r="G217" s="0" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H217" s="0" t="n">
-        <v>24.29</v>
+        <v>18.71</v>
       </c>
       <c r="I217" s="0" t="n">
-        <v>13</v>
+        <v>18</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="218">
@@ -7172,16 +7172,16 @@
         <v>5</v>
       </c>
       <c r="F218" s="0" t="n">
-        <v>143</v>
+        <v>188</v>
       </c>
       <c r="G218" s="0" t="n">
         <v>1</v>
       </c>
       <c r="H218" s="0" t="n">
-        <v>23.83</v>
+        <v>31.33</v>
       </c>
       <c r="I218" s="0" t="n">
-        <v>24</v>
+        <v>28</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="219">
@@ -7201,16 +7201,16 @@
         <v>3</v>
       </c>
       <c r="F219" s="0" t="n">
-        <v>979</v>
+        <v>1208</v>
       </c>
       <c r="G219" s="0" t="n">
         <v>0</v>
       </c>
       <c r="H219" s="0" t="n">
-        <v>244.75</v>
+        <v>302</v>
       </c>
       <c r="I219" s="0" t="n">
-        <v>30</v>
+        <v>33</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="220">
@@ -7230,16 +7230,16 @@
         <v>4</v>
       </c>
       <c r="F220" s="0" t="n">
-        <v>64</v>
+        <v>84</v>
       </c>
       <c r="G220" s="0" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="H220" s="0" t="n">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="I220" s="0" t="n">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="221">
@@ -7250,7 +7250,7 @@
         <v>237</v>
       </c>
       <c r="C221" s="0" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="D221" s="0" t="n">
         <v>3</v>
@@ -7259,16 +7259,16 @@
         <v>3</v>
       </c>
       <c r="F221" s="0" t="n">
-        <v>61</v>
+        <v>41</v>
       </c>
       <c r="G221" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H221" s="0" t="n">
-        <v>20.33</v>
+        <v>13.67</v>
       </c>
       <c r="I221" s="0" t="n">
-        <v>9</v>
+        <v>28</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="222">
@@ -7279,7 +7279,7 @@
         <v>238</v>
       </c>
       <c r="C222" s="0" t="s">
-        <v>26</v>
+        <v>46</v>
       </c>
       <c r="D222" s="0" t="n">
         <v>3</v>
@@ -7288,16 +7288,16 @@
         <v>3</v>
       </c>
       <c r="F222" s="0" t="n">
-        <v>35</v>
+        <v>111</v>
       </c>
       <c r="G222" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H222" s="0" t="n">
-        <v>11.67</v>
+        <v>37</v>
       </c>
       <c r="I222" s="0" t="n">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="223">
@@ -7308,25 +7308,25 @@
         <v>239</v>
       </c>
       <c r="C223" s="0" t="s">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="D223" s="0" t="n">
         <v>3</v>
       </c>
       <c r="E223" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="F223" s="0" t="n">
+        <v>76</v>
+      </c>
+      <c r="G223" s="0" t="n">
         <v>2</v>
       </c>
-      <c r="F223" s="0" t="n">
-        <v>32</v>
-      </c>
-      <c r="G223" s="0" t="n">
-        <v>3</v>
-      </c>
       <c r="H223" s="0" t="n">
-        <v>10.67</v>
+        <v>25.33</v>
       </c>
       <c r="I223" s="0" t="n">
-        <v>22</v>
+        <v>12</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="224">
@@ -7346,13 +7346,13 @@
         <v>3</v>
       </c>
       <c r="F224" s="0" t="n">
-        <v>60</v>
+        <v>69</v>
       </c>
       <c r="G224" s="0" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H224" s="0" t="n">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="I224" s="0" t="n">
         <v>11</v>
@@ -7366,25 +7366,25 @@
         <v>241</v>
       </c>
       <c r="C225" s="0" t="s">
-        <v>46</v>
+        <v>14</v>
       </c>
       <c r="D225" s="0" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E225" s="0" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F225" s="0" t="n">
-        <v>78</v>
+        <v>29</v>
       </c>
       <c r="G225" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H225" s="0" t="n">
-        <v>26</v>
+        <v>14.5</v>
       </c>
       <c r="I225" s="0" t="n">
-        <v>13</v>
+        <v>17</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="226">
@@ -7395,25 +7395,25 @@
         <v>242</v>
       </c>
       <c r="C226" s="0" t="s">
-        <v>26</v>
+        <v>12</v>
       </c>
       <c r="D226" s="0" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E226" s="0" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F226" s="0" t="n">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="G226" s="0" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H226" s="0" t="n">
-        <v>8</v>
+        <v>6.5</v>
       </c>
       <c r="I226" s="0" t="n">
-        <v>8</v>
+        <v>23</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="227">
@@ -7424,25 +7424,25 @@
         <v>243</v>
       </c>
       <c r="C227" s="0" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="D227" s="0" t="n">
         <v>1</v>
       </c>
       <c r="E227" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F227" s="0" t="n">
-        <v>21</v>
+        <v>9</v>
       </c>
       <c r="G227" s="0" t="n">
         <v>0</v>
       </c>
       <c r="H227" s="0" t="n">
-        <v>21</v>
+        <v>9</v>
       </c>
       <c r="I227" s="0" t="n">
-        <v>10</v>
+        <v>3</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="228">
@@ -7471,7 +7471,7 @@
         <v>0</v>
       </c>
       <c r="I228" s="0" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="229">
@@ -7482,25 +7482,25 @@
         <v>245</v>
       </c>
       <c r="C229" s="0" t="s">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="D229" s="0" t="n">
         <v>1</v>
       </c>
       <c r="E229" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F229" s="0" t="n">
-        <v>27</v>
+        <v>0</v>
       </c>
       <c r="G229" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H229" s="0" t="n">
-        <v>27</v>
+        <v>0</v>
       </c>
       <c r="I229" s="0" t="n">
-        <v>16</v>
+        <v>5</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="230">
@@ -7517,19 +7517,19 @@
         <v>1</v>
       </c>
       <c r="E230" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F230" s="0" t="n">
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="G230" s="0" t="n">
         <v>0</v>
       </c>
       <c r="H230" s="0" t="n">
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="I230" s="0" t="n">
-        <v>4</v>
+        <v>11</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="231">
@@ -7540,25 +7540,25 @@
         <v>247</v>
       </c>
       <c r="C231" s="0" t="s">
-        <v>14</v>
+        <v>26</v>
       </c>
       <c r="D231" s="0" t="n">
         <v>1</v>
       </c>
       <c r="E231" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F231" s="0" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="G231" s="0" t="n">
         <v>0</v>
       </c>
       <c r="H231" s="0" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="I231" s="0" t="n">
-        <v>3</v>
+        <v>16</v>
       </c>
     </row>
   </sheetData>
